--- a/paper/data/scalobility/8node-scalobility.xlsx
+++ b/paper/data/scalobility/8node-scalobility.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/data/scalobility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E500A5E1-FF33-144D-AA9D-6986E1594AEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF7195-FA6D-A64F-B68E-BA546AEE31E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1480" windowWidth="38400" windowHeight="21140" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="44">
   <si>
     <t>blackscholes</t>
   </si>
@@ -154,12 +154,24 @@
   <si>
     <t>pthread</t>
   </si>
+  <si>
+    <t>pthread/binding</t>
+  </si>
+  <si>
+    <t>W/O Thread Binding</t>
+  </si>
+  <si>
+    <t>With Thread Binding</t>
+  </si>
+  <si>
+    <t>128threads</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,12 +211,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -239,13 +245,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -273,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -285,8 +284,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -603,14 +600,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52C62D-7A23-7E4D-81E0-AC790BE30E7F}">
-  <dimension ref="A1:AA110"/>
+  <dimension ref="A1:AA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="169" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1109,7 +1108,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2">
@@ -1153,7 +1152,7 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="2">
@@ -1197,7 +1196,7 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1297,25 +1296,25 @@
         <v>0.74909665763023181</v>
       </c>
       <c r="I18" s="4">
-        <f>I2/B2</f>
+        <f t="shared" ref="I18:I31" si="0">I2/B2</f>
         <v>0.73701445347786809</v>
       </c>
       <c r="J18" s="2">
-        <f>J2/B2</f>
+        <f t="shared" ref="J18:J31" si="1">J2/B2</f>
         <v>0.75271002711532675</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:B31" si="0">B3/B3</f>
+        <f t="shared" ref="B19:B31" si="2">B3/B3</f>
         <v>1</v>
       </c>
       <c r="C19" s="2">
@@ -1323,45 +1322,45 @@
         <v>0.50243366304490633</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:D29" si="1">D3/B3</f>
+        <f t="shared" ref="D19:D29" si="3">D3/B3</f>
         <v>0.68289108700512069</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ref="E19:E29" si="2">E3/B3</f>
+        <f t="shared" ref="E19:E29" si="4">E3/B3</f>
         <v>0.40869838280193227</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:F29" si="3">F3/B3</f>
+        <f t="shared" ref="F19:F29" si="5">F3/B3</f>
         <v>0.56440048148711153</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" ref="G19:G29" si="4">G3/B3</f>
+        <f t="shared" ref="G19:G29" si="6">G3/B3</f>
         <v>0.43224996073832106</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" ref="H19:H29" si="5">H3/B3</f>
+        <f t="shared" ref="H19:H29" si="7">H3/B3</f>
         <v>0.52797404092891664</v>
       </c>
       <c r="I19" s="4">
-        <f>I3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.54885434656306376</v>
       </c>
       <c r="J19" s="2">
-        <f>J3/B3</f>
+        <f t="shared" si="1"/>
         <v>0.56696498665061046</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C20" s="2">
@@ -1369,45 +1368,45 @@
         <v>0.77648164528183772</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0488168951789083</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.92547545332629155</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1509840778432066</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1138876603135166</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1421384343049883</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1007574082215799</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="1"/>
-        <v>1.0488168951789083</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.92547545332629155</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1509840778432066</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1138876603135166</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1421384343049883</v>
-      </c>
-      <c r="I20" s="4">
-        <f>I4/B4</f>
-        <v>1.1007574082215799</v>
-      </c>
-      <c r="J20" s="2">
-        <f>J4/B4</f>
         <v>1.1449303405455775</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="Z20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C21" s="2">
@@ -1415,31 +1414,31 @@
         <v>0.58809636274256016</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61112423240434577</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.43811998116674539</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.47319319792536607</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
+        <v>0.45063769480869154</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="7"/>
+        <v>0.47059518183467169</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48264052914501648</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="1"/>
-        <v>0.61112423240434577</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.43811998116674539</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47319319792536607</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="4"/>
-        <v>0.45063769480869154</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="5"/>
-        <v>0.47059518183467169</v>
-      </c>
-      <c r="I21" s="4">
-        <f>I5/B5</f>
-        <v>0.48264052914501648</v>
-      </c>
-      <c r="J21" s="2">
-        <f>J5/B5</f>
         <v>0.45618800192158715</v>
       </c>
       <c r="K21" s="4"/>
@@ -1453,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C22" s="2">
@@ -1461,31 +1460,31 @@
         <v>0.54999969268151772</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.57046915239513785</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.47459602985332711</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.38260741293155198</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31086698641447424</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="7"/>
+        <v>0.29404642148115212</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30617116000434341</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="1"/>
-        <v>0.57046915239513785</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47459602985332711</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38260741293155198</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31086698641447424</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="5"/>
-        <v>0.29404642148115212</v>
-      </c>
-      <c r="I22" s="4">
-        <f>I6/B6</f>
-        <v>0.30617116000434341</v>
-      </c>
-      <c r="J22" s="2">
-        <f>J6/B6</f>
         <v>0.36991106202957225</v>
       </c>
       <c r="K22" s="4"/>
@@ -1499,39 +1498,39 @@
         <v>5</v>
       </c>
       <c r="B23" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:C31" si="8">C7/B7</f>
+        <v>0.50373628220493172</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5018803969487845</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25284860878863219</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25272955199686248</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12840624978226614</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="7"/>
+        <v>0.12830820301339738</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:C31" si="6">C7/B7</f>
-        <v>0.50373628220493172</v>
-      </c>
-      <c r="D23" s="2">
+        <v>6.8023447184306904E-2</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
-        <v>0.5018803969487845</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.25284860878863219</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="3"/>
-        <v>0.25272955199686248</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="4"/>
-        <v>0.12840624978226614</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="5"/>
-        <v>0.12830820301339738</v>
-      </c>
-      <c r="I23" s="4">
-        <f>I7/B7</f>
-        <v>6.8023447184306904E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <f>J7/B7</f>
         <v>6.8016443844273716E-2</v>
       </c>
       <c r="K23" s="4"/>
@@ -1545,39 +1544,39 @@
         <v>6</v>
       </c>
       <c r="B24" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="8"/>
+        <v>0.59010730767421449</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5712222882841701</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.38172088676403415</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.34165746482361714</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="6"/>
+        <v>0.24301367535324095</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23239616070111882</v>
+      </c>
+      <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="6"/>
-        <v>0.59010730767421449</v>
-      </c>
-      <c r="D24" s="2">
+        <v>0.24216427418560132</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="1"/>
-        <v>0.5712222882841701</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.38172088676403415</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="3"/>
-        <v>0.34165746482361714</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="4"/>
-        <v>0.24301367535324095</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="5"/>
-        <v>0.23239616070111882</v>
-      </c>
-      <c r="I24" s="4">
-        <f>I8/B8</f>
-        <v>0.24216427418560132</v>
-      </c>
-      <c r="J24" s="2">
-        <f>J8/B8</f>
         <v>0.46388629349431687</v>
       </c>
       <c r="K24" s="4"/>
@@ -1591,39 +1590,39 @@
         <v>7</v>
       </c>
       <c r="B25" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0015275582216425</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.00635890513439</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0069450611911599</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0172294356973082</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0188280431297718</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0195030107121463</v>
+      </c>
+      <c r="I25" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="6"/>
-        <v>1.0015275582216425</v>
-      </c>
-      <c r="D25" s="2">
+        <v>1.0260217765886457</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="1"/>
-        <v>1.00635890513439</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0069450611911599</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="3"/>
-        <v>1.0172294356973082</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0188280431297718</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0195030107121463</v>
-      </c>
-      <c r="I25" s="4">
-        <f>I9/B9</f>
-        <v>1.0260217765886457</v>
-      </c>
-      <c r="J25" s="2">
-        <f>J9/B9</f>
         <v>1.0192365761410165</v>
       </c>
       <c r="K25" s="1"/>
@@ -1637,39 +1636,39 @@
         <v>8</v>
       </c>
       <c r="B26" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="8"/>
+        <v>0.60753599469997444</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.75619069885241719</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.47261675141131881</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44512634675896817</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31965632122621052</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="7"/>
+        <v>0.29588715490220185</v>
+      </c>
+      <c r="I26" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="6"/>
-        <v>0.60753599469997444</v>
-      </c>
-      <c r="D26" s="2">
+        <v>0.30379722173325507</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="1"/>
-        <v>0.75619069885241719</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47261675141131881</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="3"/>
-        <v>0.44512634675896817</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31965632122621052</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="5"/>
-        <v>0.29588715490220185</v>
-      </c>
-      <c r="I26" s="4">
-        <f>I10/B10</f>
-        <v>0.30379722173325507</v>
-      </c>
-      <c r="J26" s="2">
-        <f>J10/B10</f>
         <v>0.69176067177155554</v>
       </c>
       <c r="K26" s="1"/>
@@ -1683,39 +1682,39 @@
         <v>9</v>
       </c>
       <c r="B27" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="8"/>
+        <v>0.50506064045889476</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.50540965010202865</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25460256521607605</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25713288544081175</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13223104442056821</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13096588429982409</v>
+      </c>
+      <c r="I27" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="6"/>
-        <v>0.50506064045889476</v>
-      </c>
-      <c r="D27" s="2">
+        <v>7.5342465717734827E-2</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="1"/>
-        <v>0.50540965010202865</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.25460256521607605</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="3"/>
-        <v>0.25713288544081175</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.13223104442056821</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="5"/>
-        <v>0.13096588429982409</v>
-      </c>
-      <c r="I27" s="4">
-        <f>I11/B11</f>
-        <v>7.5342465717734827E-2</v>
-      </c>
-      <c r="J27" s="2">
-        <f>J11/B11</f>
         <v>0.14479539307657485</v>
       </c>
       <c r="K27" s="1"/>
@@ -1729,39 +1728,39 @@
         <v>10</v>
       </c>
       <c r="B28" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="8"/>
+        <v>0.3609145586594118</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38276136563647012</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23040863257700772</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23465416594269933</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18583053244421546</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20382982488983367</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="6"/>
-        <v>0.3609145586594118</v>
-      </c>
-      <c r="D28" s="2">
+        <v>0.24429506457007921</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="1"/>
-        <v>0.38276136563647012</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="2"/>
-        <v>0.23040863257700772</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23465416594269933</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18583053244421546</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="5"/>
-        <v>0.20382982488983367</v>
-      </c>
-      <c r="I28" s="4">
-        <f>I12/B12</f>
-        <v>0.24429506457007921</v>
-      </c>
-      <c r="J28" s="2">
-        <f>J12/B12</f>
         <v>0.17526092341739177</v>
       </c>
       <c r="K28" s="1"/>
@@ -1775,39 +1774,39 @@
         <v>11</v>
       </c>
       <c r="B29" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="8"/>
+        <v>0.59980545536902996</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61573379806240447</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.57431200096016999</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.57771653222911334</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="6"/>
+        <v>0.58553884813382184</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="7"/>
+        <v>0.58484983584671746</v>
+      </c>
+      <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="6"/>
-        <v>0.59980545536902996</v>
-      </c>
-      <c r="D29" s="2">
+        <v>0.59749523769955015</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="1"/>
-        <v>0.61573379806240447</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="2"/>
-        <v>0.57431200096016999</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="3"/>
-        <v>0.57771653222911334</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="4"/>
-        <v>0.58553884813382184</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58484983584671746</v>
-      </c>
-      <c r="I29" s="4">
-        <f>I13/B13</f>
-        <v>0.59749523769955015</v>
-      </c>
-      <c r="J29" s="2">
-        <f>J13/B13</f>
         <v>0.59761682809877004</v>
       </c>
       <c r="K29" s="1"/>
@@ -1817,43 +1816,43 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="8"/>
+        <v>0.99848153118158056</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:D31" si="9">D14/B14</f>
+        <v>0.99980577724415565</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:E31" si="10">E14/B14</f>
+        <v>0.99856981425241886</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ref="F30:F31" si="11">F14/B14</f>
+        <v>1.0014125291334133</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="G30:G31" si="12">G14/B14</f>
+        <v>1.0029168726604987</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ref="H30:H31" si="13">H14/B14</f>
+        <v>1.0024719259834733</v>
+      </c>
+      <c r="I30" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="6"/>
-        <v>0.99848153118158056</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" ref="D30:D31" si="7">D14/B14</f>
-        <v>0.99980577724415565</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" ref="E30:E31" si="8">E14/B14</f>
-        <v>0.99856981425241886</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" ref="F30:F31" si="9">F14/B14</f>
-        <v>1.0014125291334133</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" ref="G30:G31" si="10">G14/B14</f>
-        <v>1.0029168726604987</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" ref="H30:H31" si="11">H14/B14</f>
-        <v>1.0024719259834733</v>
-      </c>
-      <c r="I30" s="4">
-        <f>I14/B14</f>
         <v>1.0061621583445157</v>
       </c>
       <c r="J30" s="2">
-        <f>J14/B14</f>
+        <f t="shared" si="1"/>
         <v>1.0070891305883183</v>
       </c>
       <c r="K30" s="4"/>
@@ -1863,43 +1862,43 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.7598332428880028</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="9"/>
+        <v>0.94065615393405988</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="10"/>
+        <v>0.75903570799565845</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="11"/>
+        <v>0.77916742209634893</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="12"/>
+        <v>0.7151954566407337</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="13"/>
+        <v>0.72536281813192272</v>
+      </c>
+      <c r="I31" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="6"/>
-        <v>0.7598332428880028</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="7"/>
-        <v>0.94065615393405988</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="8"/>
-        <v>0.75903570799565845</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="9"/>
-        <v>0.77916742209634893</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="10"/>
-        <v>0.7151954566407337</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="11"/>
-        <v>0.72536281813192272</v>
-      </c>
-      <c r="I31" s="4">
-        <f>I15/B15</f>
         <v>0.70394538111387728</v>
       </c>
       <c r="J31" s="2">
-        <f>J15/B15</f>
+        <f t="shared" si="1"/>
         <v>0.73472781118596531</v>
       </c>
       <c r="K31" s="4"/>
@@ -2574,11 +2573,11 @@
         <v>0.74334049205078923</v>
       </c>
       <c r="I52" s="4">
-        <f>I37/B37</f>
+        <f t="shared" ref="I52:I63" si="14">I37/B37</f>
         <v>0.7404769978523793</v>
       </c>
       <c r="J52" s="2">
-        <f>J37/B37</f>
+        <f t="shared" ref="J52:J63" si="15">J37/B37</f>
         <v>0.7481255416088316</v>
       </c>
       <c r="K52" s="4"/>
@@ -2592,85 +2591,85 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" ref="B53:B63" si="12">B38/B38</f>
+        <f t="shared" ref="B53:B63" si="16">B38/B38</f>
         <v>1</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" ref="C53:C63" si="13">C38/B38</f>
+        <f t="shared" ref="C53:C63" si="17">C38/B38</f>
         <v>0.51745412359621401</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" ref="D53:D63" si="14">D38/B38</f>
+        <f t="shared" ref="D53:D63" si="18">D38/B38</f>
         <v>0.71709554945067666</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" ref="E53:E63" si="15">E38/B38</f>
+        <f t="shared" ref="E53:E63" si="19">E38/B38</f>
         <v>0.43165998733840261</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" ref="F53:F63" si="16">F38/B38</f>
+        <f t="shared" ref="F53:F63" si="20">F38/B38</f>
         <v>0.60156085214679789</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" ref="G53:G63" si="17">G38/B38</f>
+        <f t="shared" ref="G53:G63" si="21">G38/B38</f>
         <v>0.46335161358589605</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" ref="H53:H63" si="18">H38/B38</f>
+        <f t="shared" ref="H53:H63" si="22">H38/B38</f>
         <v>0.54919848134339089</v>
       </c>
       <c r="I53" s="4">
-        <f>I38/B38</f>
+        <f t="shared" si="14"/>
         <v>0.80099135203205662</v>
       </c>
       <c r="J53" s="2">
-        <f>J38/B38</f>
+        <f t="shared" si="15"/>
         <v>0.60403923225225042</v>
       </c>
-      <c r="K53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="Z53" s="10"/>
+      <c r="K53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="Z53" s="9"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.8050461175443907</v>
       </c>
       <c r="D54" s="2">
+        <f t="shared" si="18"/>
+        <v>0.9274453024497481</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="19"/>
+        <v>0.80979193479877776</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="20"/>
+        <v>0.88728013728252408</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="21"/>
+        <v>0.81445731445985747</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="22"/>
+        <v>0.82746138996819507</v>
+      </c>
+      <c r="I54" s="4">
         <f t="shared" si="14"/>
-        <v>0.9274453024497481</v>
-      </c>
-      <c r="E54" s="2">
+        <v>0.83279708279529652</v>
+      </c>
+      <c r="J54" s="2">
         <f t="shared" si="15"/>
-        <v>0.80979193479877776</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="16"/>
-        <v>0.88728013728252408</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="17"/>
-        <v>0.81445731445985747</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="18"/>
-        <v>0.82746138996819507</v>
-      </c>
-      <c r="I54" s="4">
-        <f>I39/B39</f>
-        <v>0.83279708279529652</v>
-      </c>
-      <c r="J54" s="2">
-        <f>J39/B39</f>
         <v>0.87239918489087864</v>
       </c>
       <c r="K54" s="1"/>
@@ -2684,39 +2683,39 @@
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.58872122476033673</v>
       </c>
       <c r="D55" s="2">
+        <f t="shared" si="18"/>
+        <v>0.63531225902090804</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="19"/>
+        <v>0.49410728057622294</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="20"/>
+        <v>0.52891287582622681</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="21"/>
+        <v>0.54400264351531225</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="22"/>
+        <v>0.55402577377644247</v>
+      </c>
+      <c r="I55" s="4">
         <f t="shared" si="14"/>
-        <v>0.63531225902090804</v>
-      </c>
-      <c r="E55" s="2">
+        <v>0.59775305642117194</v>
+      </c>
+      <c r="J55" s="2">
         <f t="shared" si="15"/>
-        <v>0.49410728057622294</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="16"/>
-        <v>0.52891287582622681</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="17"/>
-        <v>0.54400264351531225</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="18"/>
-        <v>0.55402577377644247</v>
-      </c>
-      <c r="I55" s="4">
-        <f>I40/B40</f>
-        <v>0.59775305642117194</v>
-      </c>
-      <c r="J55" s="2">
-        <f>J40/B40</f>
         <v>0.5581011124816222</v>
       </c>
       <c r="K55" s="1"/>
@@ -2730,39 +2729,39 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.54739910396805347</v>
       </c>
       <c r="D56" s="2">
+        <f t="shared" si="18"/>
+        <v>0.56308890682870016</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="19"/>
+        <v>0.47568162723674179</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="20"/>
+        <v>0.38119770836029443</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="21"/>
+        <v>0.31153646266636265</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="22"/>
+        <v>0.29271198591656344</v>
+      </c>
+      <c r="I56" s="4">
         <f t="shared" si="14"/>
-        <v>0.56308890682870016</v>
-      </c>
-      <c r="E56" s="2">
+        <v>0.31137418269438161</v>
+      </c>
+      <c r="J56" s="2">
         <f t="shared" si="15"/>
-        <v>0.47568162723674179</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="16"/>
-        <v>0.38119770836029443</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="17"/>
-        <v>0.31153646266636265</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="18"/>
-        <v>0.29271198591656344</v>
-      </c>
-      <c r="I56" s="4">
-        <f>I41/B41</f>
-        <v>0.31137418269438161</v>
-      </c>
-      <c r="J56" s="2">
-        <f>J41/B41</f>
         <v>0.36645282685548658</v>
       </c>
       <c r="K56" s="1"/>
@@ -2776,39 +2775,39 @@
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.50280662952546262</v>
       </c>
       <c r="D57" s="2">
+        <f t="shared" si="18"/>
+        <v>0.50174276995492595</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="19"/>
+        <v>0.25221870713009881</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="20"/>
+        <v>0.25244967664100337</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="21"/>
+        <v>0.12843304683781742</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="22"/>
+        <v>0.12823707270808254</v>
+      </c>
+      <c r="I57" s="4">
         <f t="shared" si="14"/>
-        <v>0.50174276995492595</v>
-      </c>
-      <c r="E57" s="2">
+        <v>6.8590945995128647E-2</v>
+      </c>
+      <c r="J57" s="2">
         <f t="shared" si="15"/>
-        <v>0.25221870713009881</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" si="16"/>
-        <v>0.25244967664100337</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="17"/>
-        <v>0.12843304683781742</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="18"/>
-        <v>0.12823707270808254</v>
-      </c>
-      <c r="I57" s="4">
-        <f>I42/B42</f>
-        <v>6.8590945995128647E-2</v>
-      </c>
-      <c r="J57" s="2">
-        <f>J42/B42</f>
         <v>6.8136006045521988E-2</v>
       </c>
       <c r="K57" s="1"/>
@@ -2822,39 +2821,39 @@
         <v>6</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.58589547590112068</v>
       </c>
       <c r="D58" s="2">
+        <f t="shared" si="18"/>
+        <v>0.55175244889721931</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="19"/>
+        <v>0.364815129387703</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="20"/>
+        <v>0.36150274615461298</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="21"/>
+        <v>0.80176660437482505</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="22"/>
+        <v>0.39513617575180243</v>
+      </c>
+      <c r="I58" s="4">
         <f t="shared" si="14"/>
-        <v>0.55175244889721931</v>
-      </c>
-      <c r="E58" s="2">
+        <v>1.406630428618493</v>
+      </c>
+      <c r="J58" s="2">
         <f t="shared" si="15"/>
-        <v>0.364815129387703</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="16"/>
-        <v>0.36150274615461298</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="17"/>
-        <v>0.80176660437482505</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="18"/>
-        <v>0.39513617575180243</v>
-      </c>
-      <c r="I58" s="4">
-        <f>I43/B43</f>
-        <v>1.406630428618493</v>
-      </c>
-      <c r="J58" s="2">
-        <f>J43/B43</f>
         <v>0.58682973783871695</v>
       </c>
       <c r="K58" s="1"/>
@@ -2868,39 +2867,39 @@
         <v>7</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.9877274892850898</v>
       </c>
       <c r="D59" s="2">
+        <f t="shared" si="18"/>
+        <v>1.010347784667063</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="19"/>
+        <v>1.0087470223916817</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="20"/>
+        <v>1.0088994759516636</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="21"/>
+        <v>0.98999523584175297</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="22"/>
+        <v>0.99220581229913052</v>
+      </c>
+      <c r="I59" s="4">
         <f t="shared" si="14"/>
-        <v>1.010347784667063</v>
-      </c>
-      <c r="E59" s="2">
+        <v>0.99232015246111338</v>
+      </c>
+      <c r="J59" s="2">
         <f t="shared" si="15"/>
-        <v>1.0087470223916817</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="16"/>
-        <v>1.0088994759516636</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="17"/>
-        <v>0.98999523584175297</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="18"/>
-        <v>0.99220581229913052</v>
-      </c>
-      <c r="I59" s="4">
-        <f>I44/B44</f>
-        <v>0.99232015246111338</v>
-      </c>
-      <c r="J59" s="2">
-        <f>J44/B44</f>
         <v>1.0151119580830117</v>
       </c>
       <c r="K59" s="1"/>
@@ -2914,39 +2913,39 @@
         <v>8</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.62792653588065472</v>
       </c>
       <c r="D60" s="2">
+        <f t="shared" si="18"/>
+        <v>0.93606118098528923</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="19"/>
+        <v>0.73438691884872476</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="20"/>
+        <v>0.61685606430201945</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="21"/>
+        <v>0.55733761027176609</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="22"/>
+        <v>0.36904179787645514</v>
+      </c>
+      <c r="I60" s="4">
         <f t="shared" si="14"/>
-        <v>0.93606118098528923</v>
-      </c>
-      <c r="E60" s="2">
+        <v>0.4614782795790271</v>
+      </c>
+      <c r="J60" s="2">
         <f t="shared" si="15"/>
-        <v>0.73438691884872476</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="16"/>
-        <v>0.61685606430201945</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="17"/>
-        <v>0.55733761027176609</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="18"/>
-        <v>0.36904179787645514</v>
-      </c>
-      <c r="I60" s="4">
-        <f>I45/B45</f>
-        <v>0.4614782795790271</v>
-      </c>
-      <c r="J60" s="2">
-        <f>J45/B45</f>
         <v>0.9236606880809336</v>
       </c>
       <c r="K60" s="4"/>
@@ -2960,39 +2959,39 @@
         <v>9</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.50056922670811199</v>
       </c>
       <c r="D61" s="2">
+        <f t="shared" si="18"/>
+        <v>0.50105088010682841</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="19"/>
+        <v>0.25243016026637255</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="20"/>
+        <v>0.25216744022784304</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="21"/>
+        <v>0.12847009370142601</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="22"/>
+        <v>0.12886417372664299</v>
+      </c>
+      <c r="I61" s="4">
         <f t="shared" si="14"/>
-        <v>0.50105088010682841</v>
-      </c>
-      <c r="E61" s="2">
+        <v>8.7748489358916729E-2</v>
+      </c>
+      <c r="J61" s="2">
         <f t="shared" si="15"/>
-        <v>0.25243016026637255</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="16"/>
-        <v>0.25216744022784304</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="17"/>
-        <v>0.12847009370142601</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="18"/>
-        <v>0.12886417372664299</v>
-      </c>
-      <c r="I61" s="4">
-        <f>I46/B46</f>
-        <v>8.7748489358916729E-2</v>
-      </c>
-      <c r="J61" s="2">
-        <f>J46/B46</f>
         <v>0.14256940186661632</v>
       </c>
       <c r="K61" s="4"/>
@@ -3006,39 +3005,39 @@
         <v>10</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.36167908509097207</v>
       </c>
       <c r="D62" s="2">
+        <f t="shared" si="18"/>
+        <v>0.37229249697452782</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="19"/>
+        <v>0.22552417259747012</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="20"/>
+        <v>0.24597123549298217</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="21"/>
+        <v>0.18874545138000345</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="22"/>
+        <v>0.21932940564442904</v>
+      </c>
+      <c r="I62" s="4">
         <f t="shared" si="14"/>
-        <v>0.37229249697452782</v>
-      </c>
-      <c r="E62" s="2">
+        <v>0.247617397331485</v>
+      </c>
+      <c r="J62" s="2">
         <f t="shared" si="15"/>
-        <v>0.22552417259747012</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="16"/>
-        <v>0.24597123549298217</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="17"/>
-        <v>0.18874545138000345</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="18"/>
-        <v>0.21932940564442904</v>
-      </c>
-      <c r="I62" s="4">
-        <f>I47/B47</f>
-        <v>0.247617397331485</v>
-      </c>
-      <c r="J62" s="2">
-        <f>J47/B47</f>
         <v>0.1817276035477387</v>
       </c>
       <c r="K62" s="4"/>
@@ -3052,39 +3051,39 @@
         <v>11</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.60525781977421966</v>
       </c>
       <c r="D63" s="2">
+        <f t="shared" si="18"/>
+        <v>0.6184835084657212</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="19"/>
+        <v>0.58124061828798346</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="20"/>
+        <v>0.58428333805751842</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="21"/>
+        <v>0.59040934723267879</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="22"/>
+        <v>0.59073390400333581</v>
+      </c>
+      <c r="I63" s="4">
         <f t="shared" si="14"/>
-        <v>0.6184835084657212</v>
-      </c>
-      <c r="E63" s="2">
+        <v>0.6700880360192778</v>
+      </c>
+      <c r="J63" s="2">
         <f t="shared" si="15"/>
-        <v>0.58124061828798346</v>
-      </c>
-      <c r="F63" s="2">
-        <f t="shared" si="16"/>
-        <v>0.58428333805751842</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="17"/>
-        <v>0.59040934723267879</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="18"/>
-        <v>0.59073390400333581</v>
-      </c>
-      <c r="I63" s="4">
-        <f>I48/B48</f>
-        <v>0.6700880360192778</v>
-      </c>
-      <c r="J63" s="2">
-        <f>J48/B48</f>
         <v>0.60404073188587892</v>
       </c>
       <c r="K63" s="4"/>
@@ -3484,11 +3483,11 @@
       <c r="H78" s="2"/>
       <c r="I78" s="4"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="Z78" s="11"/>
+      <c r="K78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="Z78" s="10"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
@@ -3621,23 +3620,23 @@
         <v>1</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" ref="B84:B94" si="19">B69/B69</f>
+        <f t="shared" ref="B84:B94" si="23">B69/B69</f>
         <v>1</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" ref="C84:C94" si="20">C69/B69</f>
+        <f t="shared" ref="C84:C94" si="24">C69/B69</f>
         <v>0.65606885648570545</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" ref="D84:D94" si="21">D69/B69</f>
+        <f t="shared" ref="D84:D94" si="25">D69/B69</f>
         <v>0.507026172497829</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" ref="E84:E94" si="22">E69/B69</f>
+        <f t="shared" ref="E84:E94" si="26">E69/B69</f>
         <v>0.47294923590188986</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" ref="F84:F94" si="23">F69/B69</f>
+        <f t="shared" ref="F84:F94" si="27">F69/B69</f>
         <v>0.50799227122609514</v>
       </c>
       <c r="G84" s="1"/>
@@ -3655,15 +3654,15 @@
         <v>2</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C85" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.7116516420376594</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.58270656638253238</v>
       </c>
       <c r="E85" s="2">
@@ -3689,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C86" s="2">
@@ -3701,11 +3700,11 @@
         <v>0.50924760338888742</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.52890481258436628</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.52764597657007395</v>
       </c>
       <c r="G86" s="4"/>
@@ -3723,23 +3722,23 @@
         <v>4</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C87" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.58262114063309034</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.36818568788409439</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.27063322609233587</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.29046214470359405</v>
       </c>
       <c r="G87" s="4"/>
@@ -3757,23 +3756,23 @@
         <v>5</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C88" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.50178591438984765</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.25147075302722993</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.12779443075022412</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6.832698341718961E-2</v>
       </c>
       <c r="G88" s="4"/>
@@ -3791,23 +3790,23 @@
         <v>6</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.55987287267631636</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.39899015789131831</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.41780295264234402</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.2401835144678302</v>
       </c>
       <c r="G89" s="4"/>
@@ -3825,23 +3824,23 @@
         <v>7</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0115424371149297</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.99155851612881107</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.99339611806747552</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.99632479613798453</v>
       </c>
       <c r="G90" s="4"/>
@@ -3859,23 +3858,23 @@
         <v>8</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.54771110313502092</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.36745957599923795</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.30712181100169383</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.33247574560018667</v>
       </c>
       <c r="G91" s="4"/>
@@ -3893,23 +3892,23 @@
         <v>9</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.50154632245440023</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.25287974540935998</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.1291291291234965</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>8.8879924709744526E-2</v>
       </c>
       <c r="G92" s="4"/>
@@ -3927,23 +3926,23 @@
         <v>10</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.36229417522065344</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.22724758541453519</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.19376249840005527</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.22299280946016087</v>
       </c>
       <c r="G93" s="4"/>
@@ -3961,23 +3960,23 @@
         <v>11</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C94" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.60058154902065986</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.59397303727257422</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.60703900910453257</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.62456100601109976</v>
       </c>
       <c r="G94" s="4"/>
@@ -4025,9 +4024,15 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -4042,9 +4047,15 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2">
+        <v>24.460000000400001</v>
+      </c>
+      <c r="C98" s="4">
+        <v>24.56625</v>
+      </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -4059,9 +4070,15 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2">
+        <v>14.460000000400001</v>
+      </c>
+      <c r="C99" s="4">
+        <v>18.987500000000001</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -4076,9 +4093,15 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2">
+        <v>38.649999999899997</v>
+      </c>
+      <c r="C100" s="4">
+        <v>38.825000000000003</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4093,9 +4116,15 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="A101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
+        <v>6.8112500002600003</v>
+      </c>
+      <c r="C101" s="4">
+        <v>6.7837499990000003</v>
+      </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4110,9 +4139,15 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="A102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>187.22499999999999</v>
+      </c>
+      <c r="C102" s="4">
+        <v>189.47624999999999</v>
+      </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -4127,9 +4162,15 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="A103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2">
+        <v>12.1950000003</v>
+      </c>
+      <c r="C103" s="4">
+        <v>12.25</v>
+      </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -4144,9 +4185,15 @@
       <c r="Z103" s="4"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A104" s="12"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="2">
+        <v>60.483750000100002</v>
+      </c>
+      <c r="C104" s="4">
+        <v>62.106250000000003</v>
+      </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -4161,9 +4208,15 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="A105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2">
+        <v>65.0625</v>
+      </c>
+      <c r="C105" s="4">
+        <v>65.09</v>
+      </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -4178,9 +4231,15 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="A106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2">
+        <v>28.914999999999999</v>
+      </c>
+      <c r="C106" s="4">
+        <v>29.4925</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -4195,9 +4254,15 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="A107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2.4787500002399998</v>
+      </c>
+      <c r="C107" s="4">
+        <v>2.5049999999999999</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -4212,9 +4277,15 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="A108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="2">
+        <v>6.5512500009499997</v>
+      </c>
+      <c r="C108" s="4">
+        <v>7.1449999999999996</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -4229,9 +4300,15 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="2">
+        <v>20.6737500001</v>
+      </c>
+      <c r="C109" s="4">
+        <v>20.646249999999998</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -4246,7 +4323,7 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4262,6 +4339,173 @@
       <c r="T110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="2">
+        <f>B98/B98</f>
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
+        <f>C98/B98</f>
+        <v>1.0043438266393403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" ref="B114:B124" si="28">B99/B99</f>
+        <v>1</v>
+      </c>
+      <c r="C114" s="4">
+        <f t="shared" ref="C114:C124" si="29">C99/B99</f>
+        <v>1.3131051175293746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C115" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0045278137154063</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C116" s="4">
+        <f t="shared" si="29"/>
+        <v>0.99596256175313636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C117" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0120243023100548</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C118" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0045100450757398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C119" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0268253869824095</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C120" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0004226705091259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0199723326992911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C122" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0105900150307447</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C123" s="4">
+        <f t="shared" si="29"/>
+        <v>1.0906315587046593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="C124" s="4">
+        <f t="shared" si="29"/>
+        <v>0.99866981074551697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper/data/scalobility/8node-scalobility.xlsx
+++ b/paper/data/scalobility/8node-scalobility.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF7195-FA6D-A64F-B68E-BA546AEE31E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7522E5-9CFA-6B48-AC90-7942A10C411B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="28800" yWindow="-1940" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="regular" sheetId="1" r:id="rId1"/>
+    <sheet name="synthentic-application" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="71">
   <si>
     <t>blackscholes</t>
   </si>
@@ -165,6 +166,87 @@
   </si>
   <si>
     <t>128threads</t>
+  </si>
+  <si>
+    <t>8T-1N</t>
+  </si>
+  <si>
+    <t>16T-1N</t>
+  </si>
+  <si>
+    <t>32T-2N</t>
+  </si>
+  <si>
+    <t>64T-4N</t>
+  </si>
+  <si>
+    <t>128T-8N</t>
+  </si>
+  <si>
+    <t>thread-test</t>
+  </si>
+  <si>
+    <t>Linux's default</t>
+  </si>
+  <si>
+    <t>NUMAlloc</t>
+  </si>
+  <si>
+    <t>TcMalloc</t>
+  </si>
+  <si>
+    <t>TcMalloc-NUMA</t>
+  </si>
+  <si>
+    <t>jemalloc</t>
+  </si>
+  <si>
+    <t>TBB</t>
+  </si>
+  <si>
+    <t>Scalloc</t>
+  </si>
+  <si>
+    <t>1T-1N</t>
+  </si>
+  <si>
+    <t>2T-1N</t>
+  </si>
+  <si>
+    <t>4T-1N</t>
+  </si>
+  <si>
+    <t>cache-scratch</t>
+  </si>
+  <si>
+    <t>cache-thrash</t>
+  </si>
+  <si>
+    <t>larson</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>8T</t>
+  </si>
+  <si>
+    <t>16T</t>
+  </si>
+  <si>
+    <t>32T</t>
+  </si>
+  <si>
+    <t>64T</t>
+  </si>
+  <si>
+    <t>128T</t>
   </si>
 </sst>
 </file>
@@ -602,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52C62D-7A23-7E4D-81E0-AC790BE30E7F}">
   <dimension ref="A1:AA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="169" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="169" workbookViewId="0">
       <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
@@ -4509,4 +4591,2135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D94CDA-0228-0544-A979-BC3A7DF19415}">
+  <dimension ref="A1:T43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
+        <v>79.393749999799994</v>
+      </c>
+      <c r="C2" s="2">
+        <v>83.248749999799998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>57.643749999800001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.42000000039</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12.9925000002</v>
+      </c>
+      <c r="G2" s="2">
+        <v>11.7425000002</v>
+      </c>
+      <c r="H2">
+        <v>10.0687499996</v>
+      </c>
+      <c r="I2">
+        <v>9.8837500004999992</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <f>B2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <f>C2/B2</f>
+        <v>1.0485554593404356</v>
+      </c>
+      <c r="O2" s="2">
+        <f>D2/B2</f>
+        <v>0.72604896481077186</v>
+      </c>
+      <c r="P2" s="2">
+        <f>E2/B2</f>
+        <v>9.3458238216593784E-2</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>F2/B2</f>
+        <v>0.16364638274716498</v>
+      </c>
+      <c r="R2" s="2">
+        <f>G2/B2</f>
+        <v>0.14790207037996797</v>
+      </c>
+      <c r="S2">
+        <f>H2/B2</f>
+        <v>0.12682043611273386</v>
+      </c>
+      <c r="T2">
+        <f>I2/B2</f>
+        <v>0.1244902778937246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42.666249999800002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20.9487500004</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10.344999999700001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.9224999998700003</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.4087499999399999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.16625000024</v>
+      </c>
+      <c r="H3">
+        <v>0.70625000027899998</v>
+      </c>
+      <c r="I3">
+        <v>0.5625</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M9" si="0">B3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N9" si="1">C3/B3</f>
+        <v>0.49099112297186176</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O9" si="2">D3/B3</f>
+        <v>0.24246330529982113</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P9" si="3">E3/B3</f>
+        <v>0.11537222042933407</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q9" si="4">F3/B3</f>
+        <v>5.6455629448364714E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R9" si="5">G3/B3</f>
+        <v>2.7334251316801145E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S9" si="6">H3/B3</f>
+        <v>1.6552896030991956E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T9" si="7">I3/B3</f>
+        <v>1.3183722497351811E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>39.651250000099999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38.033749999900003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30.697500000200002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25.8887499999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19.798749999599998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18.308749999900002</v>
+      </c>
+      <c r="H4">
+        <v>17.9824999995</v>
+      </c>
+      <c r="I4">
+        <v>21.148749999700001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95920683458413247</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.77418744680489471</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.65291132057210577</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49932221555562728</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="5"/>
+        <v>0.46174458560206366</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>0.45351659782364107</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="7"/>
+        <v>0.53336906149608565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <v>57.026250000099999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>64.122500000100004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>60.903749999600002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>61.265000000100002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>53.318750000100003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43.992500000600003</v>
+      </c>
+      <c r="H5">
+        <v>38.651249999599997</v>
+      </c>
+      <c r="I5">
+        <v>37.686250000299999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1244383069198407</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0679950022926845</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0743298042566813</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.93498608097159652</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.77144297583170662</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>0.67777996974256982</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>0.66085793823430283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31.965000000300002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14.640000000100001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.3549999999800004</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.9737499998899999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.4812500001900002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.94624999957</v>
+      </c>
+      <c r="H6">
+        <v>1.5049999998900001</v>
+      </c>
+      <c r="I6">
+        <v>1.11500000022</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45800093852534335</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23009541685940785</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12431565774605678</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="4"/>
+        <v>7.7623963715523631E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="5"/>
+        <v>6.0886907541114775E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>4.708274675037933E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>3.4881902086955588E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2">
+        <v>79.404999999799998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>84.362500000300003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>63.870000000099999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.3712499993899998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12.859999999399999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11.577500000100001</v>
+      </c>
+      <c r="H7">
+        <v>10.2574999998</v>
+      </c>
+      <c r="I7">
+        <v>9.7662500003399995</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0624330961590893</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.80435740822694879</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="3"/>
+        <v>9.2831055971394322E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16195453686080713</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14580316101163859</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>0.12917952269788849</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>0.12299288458364836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>95.155000000300006</v>
+      </c>
+      <c r="C8" s="2">
+        <v>66.138750000399995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>37.358749999700002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>22.771249999799998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16.325000000199999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13.5624999995</v>
+      </c>
+      <c r="H8">
+        <v>11.075000000199999</v>
+      </c>
+      <c r="I8">
+        <v>9.9437499996300005</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.69506331774674446</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39260942672042687</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2393069202850949</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1715621880105988</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14253060794973715</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>0.1163890494473762</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>0.10450055172716778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>10.922500000299999</v>
+      </c>
+      <c r="C14">
+        <v>5.4875000002799998</v>
+      </c>
+      <c r="D14">
+        <v>46.867499999700001</v>
+      </c>
+      <c r="E14">
+        <v>33.891250000299998</v>
+      </c>
+      <c r="F14">
+        <v>18.688750000199999</v>
+      </c>
+      <c r="G14">
+        <v>14.3062499999</v>
+      </c>
+      <c r="H14">
+        <v>7.4837500001299997</v>
+      </c>
+      <c r="I14">
+        <v>3.58250000002</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" ref="M10:M28" si="8">B14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ref="N10:N28" si="9">C14/B14</f>
+        <v>0.50240329596056577</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ref="O10:O28" si="10">D14/B14</f>
+        <v>4.290913252315196</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ref="P10:P28" si="11">E14/B14</f>
+        <v>3.1028839550807175</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" ref="Q10:Q28" si="12">F14/B14</f>
+        <v>1.7110322728026266</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" ref="R10:R28" si="13">G14/B14</f>
+        <v>1.3097962920125485</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S10:S28" si="14">H14/B14</f>
+        <v>0.68516823070949417</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T10:T28" si="15">I14/B14</f>
+        <v>0.32799267566231194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>10.9312499999</v>
+      </c>
+      <c r="C15">
+        <v>5.4799999999800004</v>
+      </c>
+      <c r="D15">
+        <v>2.7599999997800002</v>
+      </c>
+      <c r="E15">
+        <v>1.4012500001099999</v>
+      </c>
+      <c r="F15">
+        <v>0.73625000007499997</v>
+      </c>
+      <c r="G15">
+        <v>0.403750000522</v>
+      </c>
+      <c r="H15">
+        <v>0.25750000029800002</v>
+      </c>
+      <c r="I15">
+        <v>0.231250000186</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50131503716685022</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25248713548818741</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12818753574594111</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="12"/>
+        <v>6.7352773020627574E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="13"/>
+        <v>3.6935391700463671E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="14"/>
+        <v>2.3556317923417325E-2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="15"/>
+        <v>2.1154945700456534E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>10.9274999998</v>
+      </c>
+      <c r="C16">
+        <v>87.991249999499999</v>
+      </c>
+      <c r="D16">
+        <v>81.207499999999996</v>
+      </c>
+      <c r="E16">
+        <v>75.363750000500005</v>
+      </c>
+      <c r="F16">
+        <v>57.828749999400003</v>
+      </c>
+      <c r="G16">
+        <v>30.474999999600001</v>
+      </c>
+      <c r="H16">
+        <v>15.54</v>
+      </c>
+      <c r="I16">
+        <v>8.2637500003900008</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="9"/>
+        <v>8.0522763670657014</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="10"/>
+        <v>7.4314802106141649</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="11"/>
+        <v>6.8967055595405489</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="12"/>
+        <v>5.2920384351826497</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="13"/>
+        <v>2.7888355067634656</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="14"/>
+        <v>1.4221002059285672</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="15"/>
+        <v>0.75623427138332167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>10.963750000099999</v>
+      </c>
+      <c r="C17">
+        <v>5.5200000000199996</v>
+      </c>
+      <c r="D17">
+        <v>2.7975000003399999</v>
+      </c>
+      <c r="E17">
+        <v>1.43874999974</v>
+      </c>
+      <c r="F17">
+        <v>0.73625000007499997</v>
+      </c>
+      <c r="G17">
+        <v>0.38749999972100002</v>
+      </c>
+      <c r="H17">
+        <v>0.22625000029799999</v>
+      </c>
+      <c r="I17">
+        <v>1.06374999974</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50347736859830372</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25515904688765106</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="11"/>
+        <v>0.13122791013356536</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="12"/>
+        <v>6.7153118236760664E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="13"/>
+        <v>3.5343746411352475E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="14"/>
+        <v>2.0636187462860462E-2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="15"/>
+        <v>9.7024284549565395E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>10.9262499996</v>
+      </c>
+      <c r="C18">
+        <v>84.223750000400003</v>
+      </c>
+      <c r="D18">
+        <v>76.649999999900004</v>
+      </c>
+      <c r="E18">
+        <v>77.231249999699997</v>
+      </c>
+      <c r="F18">
+        <v>57.061249999799998</v>
+      </c>
+      <c r="G18">
+        <v>29.471249999899999</v>
+      </c>
+      <c r="H18">
+        <v>15.5562499999</v>
+      </c>
+      <c r="I18">
+        <v>8.1412499998700003</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="9"/>
+        <v>7.7083857685375454</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="10"/>
+        <v>7.0152156506309202</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="11"/>
+        <v>7.0684132252627725</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="12"/>
+        <v>5.2224001832183005</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="13"/>
+        <v>2.6972886398333293</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>1.423750143047203</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="15"/>
+        <v>0.7451092552493348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>10.922500000299999</v>
+      </c>
+      <c r="C19">
+        <v>5.4837500001299997</v>
+      </c>
+      <c r="D19">
+        <v>46.0175000001</v>
+      </c>
+      <c r="E19">
+        <v>34.055000000200003</v>
+      </c>
+      <c r="F19">
+        <v>18.702500000099999</v>
+      </c>
+      <c r="G19">
+        <v>13.942500000400001</v>
+      </c>
+      <c r="H19">
+        <v>7.5012499992699997</v>
+      </c>
+      <c r="I19">
+        <v>3.4874999998099998</v>
+      </c>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="9"/>
+        <v>0.5020599679541663</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="10"/>
+        <v>4.2130922406808038</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="11"/>
+        <v>3.1178759440846546</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="12"/>
+        <v>1.7122911420999141</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2764934767697005</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="14"/>
+        <v>0.68677042792986664</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="15"/>
+        <v>0.31929503316220753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>10.9275000002</v>
+      </c>
+      <c r="C20">
+        <v>5.4824999999299999</v>
+      </c>
+      <c r="D20">
+        <v>2.7637499999299999</v>
+      </c>
+      <c r="E20">
+        <v>1.4075000002</v>
+      </c>
+      <c r="F20">
+        <v>0.72124999994399996</v>
+      </c>
+      <c r="G20">
+        <v>0.382499999832</v>
+      </c>
+      <c r="H20">
+        <v>0.26000000024199998</v>
+      </c>
+      <c r="I20">
+        <v>0.22750000003699999</v>
+      </c>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50171585447995026</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25291695263138103</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12880347748105597</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="12"/>
+        <v>6.6003202922058968E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="13"/>
+        <v>3.5003431692976372E-2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="14"/>
+        <v>2.3793182359848213E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="15"/>
+        <v>2.0819034548875424E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>109.05500000000001</v>
+      </c>
+      <c r="C26">
+        <v>54.578750000299998</v>
+      </c>
+      <c r="D26">
+        <v>27.337500000399999</v>
+      </c>
+      <c r="E26">
+        <v>13.6775000002</v>
+      </c>
+      <c r="F26">
+        <v>6.8625000002799998</v>
+      </c>
+      <c r="G26">
+        <v>3.46000000043</v>
+      </c>
+      <c r="H26">
+        <v>1.75875000004</v>
+      </c>
+      <c r="I26">
+        <v>1.3362499992400001</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50046994636009345</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25067626427399015</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12541836688093164</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="12"/>
+        <v>6.2926963461372692E-2</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="13"/>
+        <v>3.1727110177708497E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="14"/>
+        <v>1.612718353161249E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="15"/>
+        <v>1.2252991602769246E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>109.0625</v>
+      </c>
+      <c r="C27">
+        <v>54.552500000199998</v>
+      </c>
+      <c r="D27">
+        <v>27.3050000002</v>
+      </c>
+      <c r="E27">
+        <v>13.6799999997</v>
+      </c>
+      <c r="F27">
+        <v>6.8699999996500001</v>
+      </c>
+      <c r="G27">
+        <v>3.47749999957</v>
+      </c>
+      <c r="H27">
+        <v>1.78125</v>
+      </c>
+      <c r="I27">
+        <v>1.0275000003200001</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50019484240871059</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25036103152045847</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="11"/>
+        <v>0.12543266475369627</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="12"/>
+        <v>6.299140400825215E-2</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="13"/>
+        <v>3.1885386815541546E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="14"/>
+        <v>1.6332378223495703E-2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="15"/>
+        <v>9.4212034413295141E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>109.05125</v>
+      </c>
+      <c r="C28">
+        <v>872.63874999999996</v>
+      </c>
+      <c r="D28">
+        <v>839.66375000000005</v>
+      </c>
+      <c r="E28">
+        <v>677.28499999999997</v>
+      </c>
+      <c r="F28">
+        <v>525.39499999999998</v>
+      </c>
+      <c r="G28">
+        <v>298.01250000099998</v>
+      </c>
+      <c r="H28">
+        <v>156.30250000000001</v>
+      </c>
+      <c r="I28">
+        <v>81.221250000400005</v>
+      </c>
+      <c r="L28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="9"/>
+        <v>8.002097637578661</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="10"/>
+        <v>7.6997168762393837</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2107036829013884</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="12"/>
+        <v>4.8178723306702125</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="13"/>
+        <v>2.7327747274882221</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="14"/>
+        <v>1.4332939787485244</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="15"/>
+        <v>0.74479889043362646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>109.095</v>
+      </c>
+      <c r="C29">
+        <v>54.606249999699997</v>
+      </c>
+      <c r="D29">
+        <v>27.373750000299999</v>
+      </c>
+      <c r="E29">
+        <v>13.7224999997</v>
+      </c>
+      <c r="F29">
+        <v>6.9087499999400004</v>
+      </c>
+      <c r="G29">
+        <v>3.49749999959</v>
+      </c>
+      <c r="H29">
+        <v>1.8049999996999999</v>
+      </c>
+      <c r="I29">
+        <v>1.3600000003399999</v>
+      </c>
+      <c r="L29" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ref="M29:M43" si="16">B29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29:N43" si="17">C29/B29</f>
+        <v>0.50053852146936151</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" ref="O29:O43" si="18">D29/B29</f>
+        <v>0.2509166322957056</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ref="P29:P43" si="19">E29/B29</f>
+        <v>0.12578486639809341</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" ref="Q29:Q43" si="20">F29/B29</f>
+        <v>6.332783353902563E-2</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" ref="R29:R43" si="21">G29/B29</f>
+        <v>3.2059214442366743E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S43" si="22">H29/B29</f>
+        <v>1.6545212885100143E-2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T43" si="23">I29/B29</f>
+        <v>1.2466199187313808E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>109.05249999999999</v>
+      </c>
+      <c r="C30">
+        <v>54.577500000599997</v>
+      </c>
+      <c r="D30">
+        <v>27.34375</v>
+      </c>
+      <c r="E30">
+        <v>13.696249999999999</v>
+      </c>
+      <c r="F30">
+        <v>6.8862499999800004</v>
+      </c>
+      <c r="G30">
+        <v>3.5050000003499999</v>
+      </c>
+      <c r="H30">
+        <v>1.8600000003399999</v>
+      </c>
+      <c r="I30">
+        <v>1.42499999981</v>
+      </c>
+      <c r="L30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="17"/>
+        <v>0.50046995713624176</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="18"/>
+        <v>0.25073932280323696</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="19"/>
+        <v>0.12559317759794594</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="20"/>
+        <v>6.3146191054583814E-2</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="21"/>
+        <v>3.214048279819353E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="22"/>
+        <v>1.7056005138259094E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="23"/>
+        <v>1.3067100706632128E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>109.05374999999999</v>
+      </c>
+      <c r="C31">
+        <v>54.571250000500001</v>
+      </c>
+      <c r="D31">
+        <v>27.3325</v>
+      </c>
+      <c r="E31">
+        <v>13.6837499999</v>
+      </c>
+      <c r="F31">
+        <v>6.86624999996</v>
+      </c>
+      <c r="G31">
+        <v>3.45999999996</v>
+      </c>
+      <c r="H31">
+        <v>1.76250000019</v>
+      </c>
+      <c r="I31">
+        <v>1.3625000002800001</v>
+      </c>
+      <c r="L31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="17"/>
+        <v>0.50040690944144517</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="18"/>
+        <v>0.25063328863060647</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="19"/>
+        <v>0.12547711564159875</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="20"/>
+        <v>6.2962071455222771E-2</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="21"/>
+        <v>3.1727473837075755E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="22"/>
+        <v>1.6161755099572458E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="23"/>
+        <v>1.2493839049826349E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>109.06</v>
+      </c>
+      <c r="C32">
+        <v>54.558749999900002</v>
+      </c>
+      <c r="D32">
+        <v>27.3500000001</v>
+      </c>
+      <c r="E32">
+        <v>13.6912500001</v>
+      </c>
+      <c r="F32">
+        <v>6.8725000000599996</v>
+      </c>
+      <c r="G32">
+        <v>3.46875</v>
+      </c>
+      <c r="H32">
+        <v>1.7949999999299999</v>
+      </c>
+      <c r="I32">
+        <v>1.375</v>
+      </c>
+      <c r="L32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="17"/>
+        <v>0.50026361635705119</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="18"/>
+        <v>0.25077938749404</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="19"/>
+        <v>0.12553869429763434</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="20"/>
+        <v>6.3015771135705112E-2</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="21"/>
+        <v>3.1805886667889235E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="22"/>
+        <v>1.6458830001192002E-2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="23"/>
+        <v>1.260773885934348E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>6363063</v>
+      </c>
+      <c r="C37">
+        <v>6364488</v>
+      </c>
+      <c r="D37">
+        <v>6363679</v>
+      </c>
+      <c r="E37">
+        <v>6361677</v>
+      </c>
+      <c r="F37">
+        <v>6362597</v>
+      </c>
+      <c r="G37">
+        <v>67793890</v>
+      </c>
+      <c r="H37">
+        <v>107944779</v>
+      </c>
+      <c r="I37">
+        <v>138635101</v>
+      </c>
+      <c r="L37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <f>B37/C37</f>
+        <v>0.9997761013926022</v>
+      </c>
+      <c r="O37" s="2">
+        <f>B37/D37</f>
+        <v>0.99990320064855565</v>
+      </c>
+      <c r="P37" s="2">
+        <f>B37/E37</f>
+        <v>1.0002178670812742</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>B37/F37</f>
+        <v>1.0000732405337003</v>
+      </c>
+      <c r="R37" s="2">
+        <f>B37/G37</f>
+        <v>9.3858945105524991E-2</v>
+      </c>
+      <c r="S37">
+        <f>B37/H37</f>
+        <v>5.8947390128057976E-2</v>
+      </c>
+      <c r="T37">
+        <f>B37/I37</f>
+        <v>4.5897921623759629E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>13656215</v>
+      </c>
+      <c r="C38">
+        <v>13664293</v>
+      </c>
+      <c r="D38">
+        <v>13654410</v>
+      </c>
+      <c r="E38">
+        <v>13652680</v>
+      </c>
+      <c r="F38">
+        <v>13650977</v>
+      </c>
+      <c r="G38">
+        <v>116806452</v>
+      </c>
+      <c r="H38">
+        <v>218242602</v>
+      </c>
+      <c r="I38">
+        <v>345225102</v>
+      </c>
+      <c r="L38" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" ref="M38:M43" si="24">B38/B38</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" ref="N38:N43" si="25">B38/C38</f>
+        <v>0.99940882415211674</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" ref="O38:O43" si="26">B38/D38</f>
+        <v>1.000132191724139</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ref="P38:P43" si="27">B38/E38</f>
+        <v>1.0002589235227077</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" ref="Q38:Q43" si="28">B38/F38</f>
+        <v>1.0003837087997438</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" ref="R38:R43" si="29">B38/G38</f>
+        <v>0.11691319071997838</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S43" si="30">B38/H38</f>
+        <v>6.2573552894132009E-2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:T43" si="31">B38/I38</f>
+        <v>3.9557421870209192E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>16878827</v>
+      </c>
+      <c r="C39">
+        <v>16880136</v>
+      </c>
+      <c r="D39">
+        <v>16882645</v>
+      </c>
+      <c r="E39">
+        <v>16877102</v>
+      </c>
+      <c r="F39">
+        <v>16874423</v>
+      </c>
+      <c r="G39">
+        <v>127898725</v>
+      </c>
+      <c r="H39">
+        <v>250835816</v>
+      </c>
+      <c r="I39">
+        <v>227774752</v>
+      </c>
+      <c r="L39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="25"/>
+        <v>0.99992245323141948</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="26"/>
+        <v>0.99977385060220125</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0001022094907053</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0002609867015897</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="29"/>
+        <v>0.13197025224450049</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="30"/>
+        <v>6.7290338633299487E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="31"/>
+        <v>7.4103151696110731E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>16470210</v>
+      </c>
+      <c r="C40">
+        <v>16405991</v>
+      </c>
+      <c r="D40">
+        <v>16450788</v>
+      </c>
+      <c r="E40">
+        <v>16395064</v>
+      </c>
+      <c r="F40">
+        <v>16447398</v>
+      </c>
+      <c r="G40">
+        <v>63679746</v>
+      </c>
+      <c r="H40">
+        <v>15412289</v>
+      </c>
+      <c r="I40">
+        <v>1591404</v>
+      </c>
+      <c r="L40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="25"/>
+        <v>1.0039143627471208</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="26"/>
+        <v>1.0011806121384581</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0045834526781963</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0013869671056783</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="29"/>
+        <v>0.2586412640527806</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="30"/>
+        <v>1.068641393890291</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="31"/>
+        <v>10.349483851994842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>15730467</v>
+      </c>
+      <c r="C41">
+        <v>15757214</v>
+      </c>
+      <c r="D41">
+        <v>15718114</v>
+      </c>
+      <c r="E41">
+        <v>15759965</v>
+      </c>
+      <c r="F41">
+        <v>15744156</v>
+      </c>
+      <c r="G41">
+        <v>131316684</v>
+      </c>
+      <c r="H41">
+        <v>227935729</v>
+      </c>
+      <c r="I41">
+        <v>154955857</v>
+      </c>
+      <c r="L41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="25"/>
+        <v>0.99830255526135525</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="26"/>
+        <v>1.0007859085383908</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="27"/>
+        <v>0.99812829533568126</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="28"/>
+        <v>0.99913053452976452</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="29"/>
+        <v>0.11979031544841628</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="30"/>
+        <v>6.9012730338559605E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="31"/>
+        <v>0.10151579491441876</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>6354957</v>
+      </c>
+      <c r="C42">
+        <v>6351915</v>
+      </c>
+      <c r="D42">
+        <v>6352913</v>
+      </c>
+      <c r="E42">
+        <v>6350805</v>
+      </c>
+      <c r="F42">
+        <v>6358256</v>
+      </c>
+      <c r="G42">
+        <v>64954488</v>
+      </c>
+      <c r="H42">
+        <v>103286423</v>
+      </c>
+      <c r="I42">
+        <v>138821719</v>
+      </c>
+      <c r="L42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="25"/>
+        <v>1.000478910690713</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="26"/>
+        <v>1.0003217421677268</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0006537753875295</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="28"/>
+        <v>0.99948114703151303</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="29"/>
+        <v>9.7837073244269129E-2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="30"/>
+        <v>6.1527515576756876E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="31"/>
+        <v>4.57778296204501E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>10829901</v>
+      </c>
+      <c r="C43">
+        <v>10865271</v>
+      </c>
+      <c r="D43">
+        <v>10827224</v>
+      </c>
+      <c r="E43">
+        <v>10868633</v>
+      </c>
+      <c r="F43">
+        <v>10821126</v>
+      </c>
+      <c r="G43">
+        <v>183555652</v>
+      </c>
+      <c r="H43">
+        <v>98162017</v>
+      </c>
+      <c r="I43">
+        <v>59716542</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="25"/>
+        <v>0.99674467392483812</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="26"/>
+        <v>1.0002472471244708</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="27"/>
+        <v>0.99643635036715283</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0008109137625789</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="29"/>
+        <v>5.9000640307169623E-2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="30"/>
+        <v>0.11032679778778384</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="31"/>
+        <v>0.1813551260218651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/paper/data/scalobility/8node-scalobility.xlsx
+++ b/paper/data/scalobility/8node-scalobility.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7522E5-9CFA-6B48-AC90-7942A10C411B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09825EA6-5640-0046-B662-952977132B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1940" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
     <sheet name="synthentic-application" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="71">
   <si>
     <t>blackscholes</t>
   </si>
@@ -4595,10 +4596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D94CDA-0228-0544-A979-BC3A7DF19415}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="Q1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4606,7 +4607,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -4662,8 +4663,35 @@
       <c r="T1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4726,8 +4754,43 @@
         <f>I2/B2</f>
         <v>0.1244902778937246</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="2">
+        <f>B2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>B2/C2</f>
+        <v>0.95369299839325794</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>B2/D2</f>
+        <v>1.3773175756274609</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>B2/E2</f>
+        <v>10.699966306688276</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>B2/F2</f>
+        <v>6.1107369635234052</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>B2/G2</f>
+        <v>6.7612305725737913</v>
+      </c>
+      <c r="AD2">
+        <f>B2/H2</f>
+        <v>7.885164494396431</v>
+      </c>
+      <c r="AE2">
+        <f>B2/I2</f>
+        <v>8.0327557855857972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4759,39 +4822,74 @@
         <v>51</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M9" si="0">B3/B3</f>
+        <f t="shared" ref="M3:M8" si="0">B3/B3</f>
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N9" si="1">C3/B3</f>
+        <f t="shared" ref="N3:N8" si="1">C3/B3</f>
         <v>0.49099112297186176</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O9" si="2">D3/B3</f>
+        <f t="shared" ref="O3:O8" si="2">D3/B3</f>
         <v>0.24246330529982113</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P9" si="3">E3/B3</f>
+        <f t="shared" ref="P3:P8" si="3">E3/B3</f>
         <v>0.11537222042933407</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q9" si="4">F3/B3</f>
+        <f t="shared" ref="Q3:Q8" si="4">F3/B3</f>
         <v>5.6455629448364714E-2</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R9" si="5">G3/B3</f>
+        <f t="shared" ref="R3:R8" si="5">G3/B3</f>
         <v>2.7334251316801145E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S9" si="6">H3/B3</f>
+        <f t="shared" ref="S3:S8" si="6">H3/B3</f>
         <v>1.6552896030991956E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T9" si="7">I3/B3</f>
+        <f t="shared" ref="T3:T8" si="7">I3/B3</f>
         <v>1.3183722497351811E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" ref="X3:X9" si="8">B3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y9" si="9">B3/C3</f>
+        <v>2.0366967002320102</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z9" si="10">B3/D3</f>
+        <v>4.1243354278431417</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" ref="AA3:AA9" si="11">B3/E3</f>
+        <v>8.6675977655514043</v>
+      </c>
+      <c r="AB3" s="2">
+        <f t="shared" ref="AB3:AB9" si="12">B3/F3</f>
+        <v>17.713025428484809</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" ref="AC3:AC9" si="13">B3/G3</f>
+        <v>36.584137184154173</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD9" si="14">B3/H3</f>
+        <v>60.412389356382228</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE8" si="15">B3/I3</f>
+        <v>75.851111110755554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -4854,8 +4952,43 @@
         <f t="shared" si="7"/>
         <v>0.53336906149608565</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0425280178842278</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2916768466435919</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5316015643958538</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" si="12"/>
+        <v>2.0027148179001748</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1656994606576947</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="14"/>
+        <v>2.204990963503545</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="15"/>
+        <v>1.8748744015916996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -4918,8 +5051,43 @@
         <f t="shared" si="7"/>
         <v>0.66085793823430283</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="9"/>
+        <v>0.8893329174628416</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="10"/>
+        <v>0.93633396959094528</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="11"/>
+        <v>0.93081286215631953</v>
+      </c>
+      <c r="AB5" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0695346383775508</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="13"/>
+        <v>1.296272091818429</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="14"/>
+        <v>1.4754050645371151</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="15"/>
+        <v>1.5131845168900075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -4982,8 +5150,43 @@
         <f t="shared" si="7"/>
         <v>3.4881902086955588E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1834016393498401</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="10"/>
+        <v>4.3460231135808183</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="11"/>
+        <v>8.0440390062748914</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="12"/>
+        <v>12.882619646489593</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="13"/>
+        <v>16.423892103975479</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="14"/>
+        <v>21.239202659559012</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="15"/>
+        <v>28.668161429590139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -5046,8 +5249,43 @@
         <f t="shared" si="7"/>
         <v>0.12299288458364836</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="9"/>
+        <v>0.94123573862222698</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2432284327489538</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="11"/>
+        <v>10.772257080735436</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="12"/>
+        <v>6.1745723175353611</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="13"/>
+        <v>6.8585618656112404</v>
+      </c>
+      <c r="AD7">
+        <f>B7/H7</f>
+        <v>7.7411650013500592</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="15"/>
+        <v>8.1305516443912058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -5110,16 +5348,57 @@
         <f t="shared" si="7"/>
         <v>0.10450055172716778</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="9"/>
+        <v>1.4387178469463746</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="10"/>
+        <v>2.5470605949359686</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="11"/>
+        <v>4.1787341494707473</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="12"/>
+        <v>5.8287901990281314</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="13"/>
+        <v>7.0160368666402233</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="14"/>
+        <v>8.5918735890367159</v>
+      </c>
+      <c r="AE8">
+        <f>B8/I8</f>
+        <v>9.5693274673881241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5133,24 +5412,42 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5205,8 +5502,35 @@
       <c r="T13" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5238,39 +5562,74 @@
         <v>50</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" ref="M10:M28" si="8">B14/B14</f>
+        <f t="shared" ref="M14:M28" si="16">B14/B14</f>
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" ref="N10:N28" si="9">C14/B14</f>
+        <f t="shared" ref="N14:N28" si="17">C14/B14</f>
         <v>0.50240329596056577</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" ref="O10:O28" si="10">D14/B14</f>
+        <f t="shared" ref="O14:O28" si="18">D14/B14</f>
         <v>4.290913252315196</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" ref="P10:P28" si="11">E14/B14</f>
+        <f t="shared" ref="P14:P28" si="19">E14/B14</f>
         <v>3.1028839550807175</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" ref="Q10:Q28" si="12">F14/B14</f>
+        <f t="shared" ref="Q14:Q28" si="20">F14/B14</f>
         <v>1.7110322728026266</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" ref="R10:R28" si="13">G14/B14</f>
+        <f t="shared" ref="R14:R28" si="21">G14/B14</f>
         <v>1.3097962920125485</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S10:S28" si="14">H14/B14</f>
+        <f t="shared" ref="S14:S28" si="22">H14/B14</f>
         <v>0.68516823070949417</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T10:T28" si="15">I14/B14</f>
+        <f t="shared" ref="T14:T28" si="23">I14/B14</f>
         <v>0.32799267566231194</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W14" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" ref="X10:X43" si="24">B14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" ref="Y10:Y43" si="25">B14/C14</f>
+        <v>1.9904328017754311</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" ref="Z10:Z43" si="26">B14/D14</f>
+        <v>0.23305062144065533</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" ref="AA10:AA43" si="27">B14/E14</f>
+        <v>0.32228082470263908</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" ref="AB10:AB43" si="28">B14/F14</f>
+        <v>0.58444251221633936</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" ref="AC10:AC43" si="29">B14/G14</f>
+        <v>0.76347750111848645</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ref="AD10:AD43" si="30">B14/H14</f>
+        <v>1.4594955737578441</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" ref="AE9:AE43" si="31">B14/I14</f>
+        <v>3.0488485695014718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5302,39 +5661,74 @@
         <v>51</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.50131503716685022</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.25248713548818741</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.12818753574594111</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.7352773020627574E-2</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.6935391700463671E-2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.3556317923417325E-2</v>
       </c>
       <c r="T15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2.1154945700456534E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9947536496240683</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9605978263664241</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="27"/>
+        <v>7.8010704721083917</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="28"/>
+        <v>14.847198640117433</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="29"/>
+        <v>27.074303370321275</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="30"/>
+        <v>42.451456261162974</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="31"/>
+        <v>47.270270231817207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -5366,39 +5760,74 @@
         <v>52</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.0522763670657014</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.4314802106141649</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>6.8967055595405489</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.2920384351826497</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.7888355067634656</v>
       </c>
       <c r="S16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.4221002059285672</v>
       </c>
       <c r="T16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.75623427138332167</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="25"/>
+        <v>0.12418848464889515</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="26"/>
+        <v>0.13456269432995721</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="27"/>
+        <v>0.14499676568280509</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="28"/>
+        <v>0.18896310226164975</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="29"/>
+        <v>0.35857260049035039</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="30"/>
+        <v>0.70318532817245827</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="31"/>
+        <v>1.3223415518722477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -5430,39 +5859,74 @@
         <v>53</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.50347736859830372</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.25515904688765106</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.13122791013356536</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.7153118236760664E-2</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.5343746411352475E-2</v>
       </c>
       <c r="S17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.0636187462860462E-2</v>
       </c>
       <c r="T17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>9.7024284549565395E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W17" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9861865942138182</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9191242176112593</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="27"/>
+        <v>7.6203301491442472</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="28"/>
+        <v>14.891341254985601</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="29"/>
+        <v>28.293548407726188</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="30"/>
+        <v>48.458563472527501</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="31"/>
+        <v>10.306698004963328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -5494,39 +5958,74 @@
         <v>54</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.7083857685375454</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.0152156506309202</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7.0684132252627725</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.2224001832183005</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.6972886398333293</v>
       </c>
       <c r="S18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.423750143047203</v>
       </c>
       <c r="T18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.7451092552493348</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="25"/>
+        <v>0.12972884726158723</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="26"/>
+        <v>0.14254729288472606</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="27"/>
+        <v>0.14147446790829415</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="28"/>
+        <v>0.1914828364194317</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="29"/>
+        <v>0.37074267293165625</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="30"/>
+        <v>0.70237042987032461</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="31"/>
+        <v>1.3420850606202328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -5558,39 +6057,74 @@
         <v>55</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.5020599679541663</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4.2130922406808038</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3.1178759440846546</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.7122911420999141</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.2764934767697005</v>
       </c>
       <c r="S19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.68677042792986664</v>
       </c>
       <c r="T19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.31929503316220753</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9917939366384438</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="26"/>
+        <v>0.23735535394743879</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="27"/>
+        <v>0.3207311701728337</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="28"/>
+        <v>0.58401283252194081</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="29"/>
+        <v>0.78339609108744057</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="30"/>
+        <v>1.4560906517397696</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="31"/>
+        <v>3.1318996418337091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -5622,71 +6156,130 @@
         <v>56</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.50171585447995026</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.25291695263138103</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.12880347748105597</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.6003202922058968E-2</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.5003431692976372E-2</v>
       </c>
       <c r="S20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.3793182359848213E-2</v>
       </c>
       <c r="T20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2.0819034548875424E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9931600547814905</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9538670286664028</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="27"/>
+        <v>7.7637655407795716</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="28"/>
+        <v>15.150779897467514</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="29"/>
+        <v>28.568627464051058</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="30"/>
+        <v>42.028846115496229</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="31"/>
+        <v>48.0329670260342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -5741,8 +6334,35 @@
       <c r="T25" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -5774,39 +6394,74 @@
         <v>50</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.50046994636009345</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.25067626427399015</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.12541836688093164</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.2926963461372692E-2</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.1727110177708497E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.612718353161249E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.2252991602769246E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9981219796972369</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9892089619900988</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="27"/>
+        <v>7.9733138364763549</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="28"/>
+        <v>15.891438979315177</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="29"/>
+        <v>31.518786123250557</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="30"/>
+        <v>62.007107319129908</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="31"/>
+        <v>81.612722216670278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -5838,39 +6493,74 @@
         <v>51</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.50019484240871059</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.25036103152045847</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.12543266475369627</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.299140400825215E-2</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.1885386815541546E-2</v>
       </c>
       <c r="S27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.6332378223495703E-2</v>
       </c>
       <c r="T27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>9.4212034413295141E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="25"/>
+        <v>1.999220933955367</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9942318256436975</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="27"/>
+        <v>7.9724049709350675</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="28"/>
+        <v>15.87518195131824</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="29"/>
+        <v>31.362329263403538</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="30"/>
+        <v>61.228070175438596</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="31"/>
+        <v>106.14355227837864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -5902,39 +6592,74 @@
         <v>52</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.002097637578661</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.6997168762393837</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>6.2107036829013884</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.8178723306702125</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.7327747274882221</v>
       </c>
       <c r="S28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.4332939787485244</v>
       </c>
       <c r="T28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.74479889043362646</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W28" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="25"/>
+        <v>0.12496723300449356</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="26"/>
+        <v>0.12987490528202508</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="27"/>
+        <v>0.16101235078290527</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="28"/>
+        <v>0.2075605020984212</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="29"/>
+        <v>0.36592844259765639</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="30"/>
+        <v>0.69769357495881379</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="31"/>
+        <v>1.3426443202913392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -5966,39 +6691,74 @@
         <v>53</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" ref="M29:M43" si="16">B29/B29</f>
+        <f t="shared" ref="M29:M37" si="32">B29/B29</f>
         <v>1</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" ref="N29:N43" si="17">C29/B29</f>
+        <f t="shared" ref="N29:N32" si="33">C29/B29</f>
         <v>0.50053852146936151</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" ref="O29:O43" si="18">D29/B29</f>
+        <f t="shared" ref="O29:O32" si="34">D29/B29</f>
         <v>0.2509166322957056</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" ref="P29:P43" si="19">E29/B29</f>
+        <f t="shared" ref="P29:P32" si="35">E29/B29</f>
         <v>0.12578486639809341</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" ref="Q29:Q43" si="20">F29/B29</f>
+        <f t="shared" ref="Q29:Q32" si="36">F29/B29</f>
         <v>6.332783353902563E-2</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" ref="R29:R43" si="21">G29/B29</f>
+        <f t="shared" ref="R29:R32" si="37">G29/B29</f>
         <v>3.2059214442366743E-2</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29:S43" si="22">H29/B29</f>
+        <f t="shared" ref="S29:S32" si="38">H29/B29</f>
         <v>1.6545212885100143E-2</v>
       </c>
       <c r="T29">
-        <f t="shared" ref="T29:T43" si="23">I29/B29</f>
+        <f t="shared" ref="T29:T32" si="39">I29/B29</f>
         <v>1.2466199187313808E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W29" t="s">
+        <v>53</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9978482316694399</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9853874605709625</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="27"/>
+        <v>7.9500819823199143</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="28"/>
+        <v>15.790844943144194</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="29"/>
+        <v>31.192280203799523</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="30"/>
+        <v>60.440443223341902</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="31"/>
+        <v>80.216911744651654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -6030,39 +6790,74 @@
         <v>54</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.50046995713624176</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.25073932280323696</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.12559317759794594</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>6.3146191054583814E-2</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>3.214048279819353E-2</v>
       </c>
       <c r="S30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>1.7056005138259094E-2</v>
       </c>
       <c r="T30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>1.3067100706632128E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9981219366735583</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9882057142857139</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" si="27"/>
+        <v>7.9622159350187101</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="28"/>
+        <v>15.83626792525928</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="29"/>
+        <v>31.113409412014352</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="30"/>
+        <v>58.630376333368638</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="31"/>
+        <v>76.528070185642335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -6094,39 +6889,74 @@
         <v>55</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.50040690944144517</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.25063328863060647</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.12547711564159875</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>6.2962071455222771E-2</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>3.1727473837075755E-2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>1.6161755099572458E-2</v>
       </c>
       <c r="T31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>1.2493839049826349E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9983736857594576</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9898929845422115</v>
+      </c>
+      <c r="AA31" s="2">
+        <f t="shared" si="27"/>
+        <v>7.9695807071012661</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="28"/>
+        <v>15.882577826416938</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="29"/>
+        <v>31.518424855855702</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="30"/>
+        <v>61.874468078436223</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="31"/>
+        <v>80.039449524835916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -6158,63 +6988,116 @@
         <v>56</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="N32" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="33"/>
         <v>0.50026361635705119</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.25077938749404</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="35"/>
         <v>0.12553869429763434</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="36"/>
         <v>6.3015771135705112E-2</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v>3.1805886667889235E-2</v>
       </c>
       <c r="S32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>1.6458830001192002E-2</v>
       </c>
       <c r="T32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>1.260773885934348E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="25"/>
+        <v>1.9989460902275051</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9875685557441041</v>
+      </c>
+      <c r="AA32" s="2">
+        <f t="shared" si="27"/>
+        <v>7.9656715054654201</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" si="28"/>
+        <v>15.869043288329991</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="29"/>
+        <v>31.440720720720723</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="30"/>
+        <v>60.757660169500305</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="31"/>
+        <v>79.316363636363633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -6269,8 +7152,35 @@
       <c r="T36" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W36" t="s">
+        <v>62</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -6302,7 +7212,7 @@
         <v>50</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="N37" s="2">
@@ -6333,8 +7243,43 @@
         <f>B37/I37</f>
         <v>4.5897921623759629E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X37" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="2">
+        <f>C37/B37</f>
+        <v>1.0002239487492108</v>
+      </c>
+      <c r="Z37" s="2">
+        <f>D37/B37</f>
+        <v>1.000096808722466</v>
+      </c>
+      <c r="AA37" s="2">
+        <f>E37/B37</f>
+        <v>0.99978218037445177</v>
+      </c>
+      <c r="AB37" s="2">
+        <f>F37/B37</f>
+        <v>0.99992676483008258</v>
+      </c>
+      <c r="AC37" s="2">
+        <f>G37/B37</f>
+        <v>10.654285522554154</v>
+      </c>
+      <c r="AD37">
+        <f>H37/B37</f>
+        <v>16.96427946729429</v>
+      </c>
+      <c r="AE37">
+        <f>I37/B37</f>
+        <v>21.787478923279558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -6366,39 +7311,74 @@
         <v>51</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" ref="M38:M43" si="24">B38/B38</f>
+        <f t="shared" ref="M38:M43" si="40">B38/B38</f>
         <v>1</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" ref="N38:N43" si="25">B38/C38</f>
+        <f t="shared" ref="N38:N43" si="41">B38/C38</f>
         <v>0.99940882415211674</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" ref="O38:O43" si="26">B38/D38</f>
+        <f t="shared" ref="O38:O43" si="42">B38/D38</f>
         <v>1.000132191724139</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" ref="P38:P43" si="27">B38/E38</f>
+        <f t="shared" ref="P38:P43" si="43">B38/E38</f>
         <v>1.0002589235227077</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" ref="Q38:Q43" si="28">B38/F38</f>
+        <f t="shared" ref="Q38:Q43" si="44">B38/F38</f>
         <v>1.0003837087997438</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" ref="R38:R43" si="29">B38/G38</f>
+        <f t="shared" ref="R38:R43" si="45">B38/G38</f>
         <v>0.11691319071997838</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38:S43" si="30">B38/H38</f>
+        <f t="shared" ref="S38:S43" si="46">B38/H38</f>
         <v>6.2573552894132009E-2</v>
       </c>
       <c r="T38">
-        <f t="shared" ref="T38:T43" si="31">B38/I38</f>
+        <f t="shared" ref="T38:T43" si="47">B38/I38</f>
         <v>3.9557421870209192E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W38" t="s">
+        <v>51</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" ref="X38:X43" si="48">B38/B38</f>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="2">
+        <f t="shared" ref="Y38:Y43" si="49">C38/B38</f>
+        <v>1.0005915255434981</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" ref="Z38:Z43" si="50">D38/B38</f>
+        <v>0.99986782574820332</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" ref="AA38:AA43" si="51">E38/B38</f>
+        <v>0.99974114350132892</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" ref="AB38:AB43" si="52">F38/B38</f>
+        <v>0.99961643837622649</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" ref="AC38:AC43" si="53">G38/B38</f>
+        <v>8.5533547912067878</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" ref="AD38:AD43" si="54">H38/B38</f>
+        <v>15.981192592530213</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" ref="AE38:AE43" si="55">I38/B38</f>
+        <v>25.279706126477944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -6430,39 +7410,74 @@
         <v>52</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.99992245323141948</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0.99977385060220125</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>1.0001022094907053</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>1.0002609867015897</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>0.13197025224450049</v>
       </c>
       <c r="S39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>6.7290338633299487E-2</v>
       </c>
       <c r="T39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>7.4103151696110731E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W39" t="s">
+        <v>52</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="49"/>
+        <v>1.0000775527825483</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="50"/>
+        <v>1.0002262005529177</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="51"/>
+        <v>0.99989780095500713</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="52"/>
+        <v>0.99973908139469647</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="53"/>
+        <v>7.5774652468444641</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="54"/>
+        <v>14.860974403019831</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="55"/>
+        <v>13.494702682834536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -6494,39 +7509,74 @@
         <v>53</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>1.0039143627471208</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>1.0011806121384581</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>1.0045834526781963</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>1.0013869671056783</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>0.2586412640527806</v>
       </c>
       <c r="S40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>1.068641393890291</v>
       </c>
       <c r="T40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>10.349483851994842</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W40" t="s">
+        <v>53</v>
+      </c>
+      <c r="X40" s="2">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2">
+        <f t="shared" si="49"/>
+        <v>0.99610089974566207</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="50"/>
+        <v>0.99882078006291364</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="51"/>
+        <v>0.99543745951023088</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="52"/>
+        <v>0.9986149539076915</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="53"/>
+        <v>3.8663590810317539</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="54"/>
+        <v>0.93576760709183426</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="55"/>
+        <v>9.6623176025078E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -6558,39 +7608,74 @@
         <v>54</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.99830255526135525</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>1.0007859085383908</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>0.99812829533568126</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>0.99913053452976452</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>0.11979031544841628</v>
       </c>
       <c r="S41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>6.9012730338559605E-2</v>
       </c>
       <c r="T41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>0.10151579491441876</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W41" t="s">
+        <v>54</v>
+      </c>
+      <c r="X41" s="2">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="2">
+        <f t="shared" si="49"/>
+        <v>1.0017003309564809</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="50"/>
+        <v>0.99921470862880291</v>
+      </c>
+      <c r="AA41" s="2">
+        <f t="shared" si="51"/>
+        <v>1.0018752145120675</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0008702220983012</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" si="53"/>
+        <v>8.3479202492843978</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="54"/>
+        <v>14.490080237287298</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="55"/>
+        <v>9.8506838353877217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -6622,39 +7707,74 @@
         <v>55</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>1.000478910690713</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>1.0003217421677268</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>1.0006537753875295</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>0.99948114703151303</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>9.7837073244269129E-2</v>
       </c>
       <c r="S42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>6.1527515576756876E-2</v>
       </c>
       <c r="T42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>4.57778296204501E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>55</v>
+      </c>
+      <c r="X42" s="2">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="2">
+        <f t="shared" si="49"/>
+        <v>0.99952131855494852</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="50"/>
+        <v>0.99967836131700027</v>
+      </c>
+      <c r="AA42" s="2">
+        <f t="shared" si="51"/>
+        <v>0.9993466517554721</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0005191223166419</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="53"/>
+        <v>10.221074351879958</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="54"/>
+        <v>16.25289093222818</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="55"/>
+        <v>21.844635455440532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -6686,40 +7806,1018 @@
         <v>56</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0.99674467392483812</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>1.0002472471244708</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="43"/>
         <v>0.99643635036715283</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="44"/>
         <v>1.0008109137625789</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>5.9000640307169623E-2</v>
       </c>
       <c r="S43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>0.11032679778778384</v>
       </c>
       <c r="T43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>0.1813551260218651</v>
+      </c>
+      <c r="W43" t="s">
+        <v>56</v>
+      </c>
+      <c r="X43" s="2">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="2">
+        <f t="shared" si="49"/>
+        <v>1.0032659578328555</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="50"/>
+        <v>0.99975281399155913</v>
+      </c>
+      <c r="AA43" s="2">
+        <f t="shared" si="51"/>
+        <v>1.0035763946503298</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" si="52"/>
+        <v>0.99918974328574195</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" si="53"/>
+        <v>16.948968600913343</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="54"/>
+        <v>9.0639810096140305</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="55"/>
+        <v>5.5140432031650155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9751B6-9DD4-A94E-B89E-DA491D45E4AB}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.95369299839325794</v>
+      </c>
+      <c r="D2">
+        <v>1.3773175756274609</v>
+      </c>
+      <c r="E2">
+        <v>10.699966306688276</v>
+      </c>
+      <c r="F2">
+        <v>6.1107369635234052</v>
+      </c>
+      <c r="G2">
+        <v>6.7612305725737913</v>
+      </c>
+      <c r="H2">
+        <v>7.885164494396431</v>
+      </c>
+      <c r="I2">
+        <v>8.0327557855857972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2.0366967002320102</v>
+      </c>
+      <c r="D3">
+        <v>4.1243354278431417</v>
+      </c>
+      <c r="E3">
+        <v>8.6675977655514043</v>
+      </c>
+      <c r="F3">
+        <v>17.713025428484809</v>
+      </c>
+      <c r="G3">
+        <v>36.584137184154173</v>
+      </c>
+      <c r="H3">
+        <v>60.412389356382228</v>
+      </c>
+      <c r="I3">
+        <v>75.851111110755554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0425280178842278</v>
+      </c>
+      <c r="D4">
+        <v>1.2916768466435919</v>
+      </c>
+      <c r="E4">
+        <v>1.5316015643958538</v>
+      </c>
+      <c r="F4">
+        <v>2.0027148179001748</v>
+      </c>
+      <c r="G4">
+        <v>2.1656994606576947</v>
+      </c>
+      <c r="H4">
+        <v>2.204990963503545</v>
+      </c>
+      <c r="I4">
+        <v>1.8748744015916996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.8893329174628416</v>
+      </c>
+      <c r="D5">
+        <v>0.93633396959094528</v>
+      </c>
+      <c r="E5">
+        <v>0.93081286215631953</v>
+      </c>
+      <c r="F5">
+        <v>1.0695346383775508</v>
+      </c>
+      <c r="G5">
+        <v>1.296272091818429</v>
+      </c>
+      <c r="H5">
+        <v>1.4754050645371151</v>
+      </c>
+      <c r="I5">
+        <v>1.5131845168900075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2.1834016393498401</v>
+      </c>
+      <c r="D6">
+        <v>4.3460231135808183</v>
+      </c>
+      <c r="E6">
+        <v>8.0440390062748914</v>
+      </c>
+      <c r="F6">
+        <v>12.882619646489593</v>
+      </c>
+      <c r="G6">
+        <v>16.423892103975479</v>
+      </c>
+      <c r="H6">
+        <v>21.239202659559012</v>
+      </c>
+      <c r="I6">
+        <v>28.668161429590139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.94123573862222698</v>
+      </c>
+      <c r="D7">
+        <v>1.2432284327489538</v>
+      </c>
+      <c r="E7">
+        <v>10.772257080735436</v>
+      </c>
+      <c r="F7">
+        <v>6.1745723175353611</v>
+      </c>
+      <c r="G7">
+        <v>6.8585618656112404</v>
+      </c>
+      <c r="H7">
+        <v>7.7411650013500592</v>
+      </c>
+      <c r="I7">
+        <v>8.1305516443912058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.4387178469463746</v>
+      </c>
+      <c r="D8">
+        <v>2.5470605949359686</v>
+      </c>
+      <c r="E8">
+        <v>4.1787341494707473</v>
+      </c>
+      <c r="F8">
+        <v>5.8287901990281314</v>
+      </c>
+      <c r="G8">
+        <v>7.0160368666402233</v>
+      </c>
+      <c r="H8">
+        <v>8.5918735890367159</v>
+      </c>
+      <c r="I8">
+        <v>9.5693274673881241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.9904328017754311</v>
+      </c>
+      <c r="D14">
+        <v>0.23305062144065533</v>
+      </c>
+      <c r="E14">
+        <v>0.32228082470263908</v>
+      </c>
+      <c r="F14">
+        <v>0.58444251221633936</v>
+      </c>
+      <c r="G14">
+        <v>0.76347750111848645</v>
+      </c>
+      <c r="H14">
+        <v>1.4594955737578441</v>
+      </c>
+      <c r="I14">
+        <v>3.0488485695014718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.9947536496240683</v>
+      </c>
+      <c r="D15">
+        <v>3.9605978263664241</v>
+      </c>
+      <c r="E15">
+        <v>7.8010704721083917</v>
+      </c>
+      <c r="F15">
+        <v>14.847198640117433</v>
+      </c>
+      <c r="G15">
+        <v>27.074303370321275</v>
+      </c>
+      <c r="H15">
+        <v>42.451456261162974</v>
+      </c>
+      <c r="I15">
+        <v>47.270270231817207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.12418848464889515</v>
+      </c>
+      <c r="D16">
+        <v>0.13456269432995721</v>
+      </c>
+      <c r="E16">
+        <v>0.14499676568280509</v>
+      </c>
+      <c r="F16">
+        <v>0.18896310226164975</v>
+      </c>
+      <c r="G16">
+        <v>0.35857260049035039</v>
+      </c>
+      <c r="H16">
+        <v>0.70318532817245827</v>
+      </c>
+      <c r="I16">
+        <v>1.3223415518722477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.9861865942138182</v>
+      </c>
+      <c r="D17">
+        <v>3.9191242176112593</v>
+      </c>
+      <c r="E17">
+        <v>7.6203301491442472</v>
+      </c>
+      <c r="F17">
+        <v>14.891341254985601</v>
+      </c>
+      <c r="G17">
+        <v>28.293548407726188</v>
+      </c>
+      <c r="H17">
+        <v>48.458563472527501</v>
+      </c>
+      <c r="I17">
+        <v>10.306698004963328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.12972884726158723</v>
+      </c>
+      <c r="D18">
+        <v>0.14254729288472606</v>
+      </c>
+      <c r="E18">
+        <v>0.14147446790829415</v>
+      </c>
+      <c r="F18">
+        <v>0.1914828364194317</v>
+      </c>
+      <c r="G18">
+        <v>0.37074267293165625</v>
+      </c>
+      <c r="H18">
+        <v>0.70237042987032461</v>
+      </c>
+      <c r="I18">
+        <v>1.3420850606202328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1.9917939366384438</v>
+      </c>
+      <c r="D19">
+        <v>0.23735535394743879</v>
+      </c>
+      <c r="E19">
+        <v>0.3207311701728337</v>
+      </c>
+      <c r="F19">
+        <v>0.58401283252194081</v>
+      </c>
+      <c r="G19">
+        <v>0.78339609108744057</v>
+      </c>
+      <c r="H19">
+        <v>1.4560906517397696</v>
+      </c>
+      <c r="I19">
+        <v>3.1318996418337091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1.9931600547814905</v>
+      </c>
+      <c r="D20">
+        <v>3.9538670286664028</v>
+      </c>
+      <c r="E20">
+        <v>7.7637655407795716</v>
+      </c>
+      <c r="F20">
+        <v>15.150779897467514</v>
+      </c>
+      <c r="G20">
+        <v>28.568627464051058</v>
+      </c>
+      <c r="H20">
+        <v>42.028846115496229</v>
+      </c>
+      <c r="I20">
+        <v>48.0329670260342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1.9981219796972369</v>
+      </c>
+      <c r="D26">
+        <v>3.9892089619900988</v>
+      </c>
+      <c r="E26">
+        <v>7.9733138364763549</v>
+      </c>
+      <c r="F26">
+        <v>15.891438979315177</v>
+      </c>
+      <c r="G26">
+        <v>31.518786123250557</v>
+      </c>
+      <c r="H26">
+        <v>62.007107319129908</v>
+      </c>
+      <c r="I26">
+        <v>81.612722216670278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1.999220933955367</v>
+      </c>
+      <c r="D27">
+        <v>3.9942318256436975</v>
+      </c>
+      <c r="E27">
+        <v>7.9724049709350675</v>
+      </c>
+      <c r="F27">
+        <v>15.87518195131824</v>
+      </c>
+      <c r="G27">
+        <v>31.362329263403538</v>
+      </c>
+      <c r="H27">
+        <v>61.228070175438596</v>
+      </c>
+      <c r="I27">
+        <v>106.14355227837864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.12496723300449356</v>
+      </c>
+      <c r="D28">
+        <v>0.12987490528202508</v>
+      </c>
+      <c r="E28">
+        <v>0.16101235078290527</v>
+      </c>
+      <c r="F28">
+        <v>0.2075605020984212</v>
+      </c>
+      <c r="G28">
+        <v>0.36592844259765639</v>
+      </c>
+      <c r="H28">
+        <v>0.69769357495881379</v>
+      </c>
+      <c r="I28">
+        <v>1.3426443202913392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1.9978482316694399</v>
+      </c>
+      <c r="D29">
+        <v>3.9853874605709625</v>
+      </c>
+      <c r="E29">
+        <v>7.9500819823199143</v>
+      </c>
+      <c r="F29">
+        <v>15.790844943144194</v>
+      </c>
+      <c r="G29">
+        <v>31.192280203799523</v>
+      </c>
+      <c r="H29">
+        <v>60.440443223341902</v>
+      </c>
+      <c r="I29">
+        <v>80.216911744651654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1.9981219366735583</v>
+      </c>
+      <c r="D30">
+        <v>3.9882057142857139</v>
+      </c>
+      <c r="E30">
+        <v>7.9622159350187101</v>
+      </c>
+      <c r="F30">
+        <v>15.83626792525928</v>
+      </c>
+      <c r="G30">
+        <v>31.113409412014352</v>
+      </c>
+      <c r="H30">
+        <v>58.630376333368638</v>
+      </c>
+      <c r="I30">
+        <v>76.528070185642335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1.9983736857594576</v>
+      </c>
+      <c r="D31">
+        <v>3.9898929845422115</v>
+      </c>
+      <c r="E31">
+        <v>7.9695807071012661</v>
+      </c>
+      <c r="F31">
+        <v>15.882577826416938</v>
+      </c>
+      <c r="G31">
+        <v>31.518424855855702</v>
+      </c>
+      <c r="H31">
+        <v>61.874468078436223</v>
+      </c>
+      <c r="I31">
+        <v>80.039449524835916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1.9989460902275051</v>
+      </c>
+      <c r="D32">
+        <v>3.9875685557441041</v>
+      </c>
+      <c r="E32">
+        <v>7.9656715054654201</v>
+      </c>
+      <c r="F32">
+        <v>15.869043288329991</v>
+      </c>
+      <c r="G32">
+        <v>31.440720720720723</v>
+      </c>
+      <c r="H32">
+        <v>60.757660169500305</v>
+      </c>
+      <c r="I32">
+        <v>79.316363636363633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1.0002239487492108</v>
+      </c>
+      <c r="D37">
+        <v>1.000096808722466</v>
+      </c>
+      <c r="E37">
+        <v>0.99978218037445177</v>
+      </c>
+      <c r="F37">
+        <v>0.99992676483008258</v>
+      </c>
+      <c r="G37">
+        <v>10.654285522554154</v>
+      </c>
+      <c r="H37">
+        <v>16.96427946729429</v>
+      </c>
+      <c r="I37">
+        <v>21.787478923279558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1.0005915255434981</v>
+      </c>
+      <c r="D38">
+        <v>0.99986782574820332</v>
+      </c>
+      <c r="E38">
+        <v>0.99974114350132892</v>
+      </c>
+      <c r="F38">
+        <v>0.99961643837622649</v>
+      </c>
+      <c r="G38">
+        <v>8.5533547912067878</v>
+      </c>
+      <c r="H38">
+        <v>15.981192592530213</v>
+      </c>
+      <c r="I38">
+        <v>25.279706126477944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1.0000775527825483</v>
+      </c>
+      <c r="D39">
+        <v>1.0002262005529177</v>
+      </c>
+      <c r="E39">
+        <v>0.99989780095500713</v>
+      </c>
+      <c r="F39">
+        <v>0.99973908139469647</v>
+      </c>
+      <c r="G39">
+        <v>7.5774652468444641</v>
+      </c>
+      <c r="H39">
+        <v>14.860974403019831</v>
+      </c>
+      <c r="I39">
+        <v>13.494702682834536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.99610089974566207</v>
+      </c>
+      <c r="D40">
+        <v>0.99882078006291364</v>
+      </c>
+      <c r="E40">
+        <v>0.99543745951023088</v>
+      </c>
+      <c r="F40">
+        <v>0.9986149539076915</v>
+      </c>
+      <c r="G40">
+        <v>3.8663590810317539</v>
+      </c>
+      <c r="H40">
+        <v>0.93576760709183426</v>
+      </c>
+      <c r="I40">
+        <v>9.6623176025078E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1.0017003309564809</v>
+      </c>
+      <c r="D41">
+        <v>0.99921470862880291</v>
+      </c>
+      <c r="E41">
+        <v>1.0018752145120675</v>
+      </c>
+      <c r="F41">
+        <v>1.0008702220983012</v>
+      </c>
+      <c r="G41">
+        <v>8.3479202492843978</v>
+      </c>
+      <c r="H41">
+        <v>14.490080237287298</v>
+      </c>
+      <c r="I41">
+        <v>9.8506838353877217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.99952131855494852</v>
+      </c>
+      <c r="D42">
+        <v>0.99967836131700027</v>
+      </c>
+      <c r="E42">
+        <v>0.9993466517554721</v>
+      </c>
+      <c r="F42">
+        <v>1.0005191223166419</v>
+      </c>
+      <c r="G42">
+        <v>10.221074351879958</v>
+      </c>
+      <c r="H42">
+        <v>16.25289093222818</v>
+      </c>
+      <c r="I42">
+        <v>21.844635455440532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1.0032659578328555</v>
+      </c>
+      <c r="D43">
+        <v>0.99975281399155913</v>
+      </c>
+      <c r="E43">
+        <v>1.0035763946503298</v>
+      </c>
+      <c r="F43">
+        <v>0.99918974328574195</v>
+      </c>
+      <c r="G43">
+        <v>16.948968600913343</v>
+      </c>
+      <c r="H43">
+        <v>9.0639810096140305</v>
+      </c>
+      <c r="I43">
+        <v>5.5140432031650155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/paper/data/scalobility/8node-scalobility.xlsx
+++ b/paper/data/scalobility/8node-scalobility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09825EA6-5640-0046-B662-952977132B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D311FC-C86C-F74D-8F42-111C54DF4DC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4596,10 +4594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D94CDA-0228-0544-A979-BC3A7DF19415}">
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AE43"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4607,7 +4605,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4789,8 +4787,16 @@
         <f>B2/I2</f>
         <v>8.0327557855857972</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG2">
+        <f>AVERAGE(AE2+AE14+AE26+AE37)</f>
+        <v>114.48180549503709</v>
+      </c>
+      <c r="AH2">
+        <f>AG3/AG2</f>
+        <v>2.2234506055066028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4857,39 +4863,47 @@
         <v>51</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" ref="X3:X9" si="8">B3/B3</f>
+        <f t="shared" ref="X3:X8" si="8">B3/B3</f>
         <v>1</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y9" si="9">B3/C3</f>
+        <f t="shared" ref="Y3:Y8" si="9">B3/C3</f>
         <v>2.0366967002320102</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z9" si="10">B3/D3</f>
+        <f t="shared" ref="Z3:Z8" si="10">B3/D3</f>
         <v>4.1243354278431417</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="AA3:AA9" si="11">B3/E3</f>
+        <f t="shared" ref="AA3:AA8" si="11">B3/E3</f>
         <v>8.6675977655514043</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" ref="AB3:AB9" si="12">B3/F3</f>
+        <f t="shared" ref="AB3:AB8" si="12">B3/F3</f>
         <v>17.713025428484809</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC9" si="13">B3/G3</f>
+        <f t="shared" ref="AC3:AC8" si="13">B3/G3</f>
         <v>36.584137184154173</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD9" si="14">B3/H3</f>
+        <f t="shared" ref="AD3:AD8" si="14">B3/H3</f>
         <v>60.412389356382228</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE8" si="15">B3/I3</f>
+        <f t="shared" ref="AE3:AE7" si="15">B3/I3</f>
         <v>75.851111110755554</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF3">
+        <f>AE3/AE6</f>
+        <v>2.6458310309521642</v>
+      </c>
+      <c r="AG3">
+        <f>AVERAGE(AE3+AE15+AE27+AE38)</f>
+        <v>254.54463974742936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -4987,8 +5001,12 @@
         <f t="shared" si="15"/>
         <v>1.8748744015916996</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG4">
+        <f>AVERAGE(AE4+AE16+AE28+AE39)</f>
+        <v>18.034562956589824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5086,8 +5104,12 @@
         <f t="shared" si="15"/>
         <v>1.5131845168900075</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG5">
+        <f>AVERAGE(AE5+AE17+AE29+AE40)</f>
+        <v>92.13341744253006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5185,8 +5207,12 @@
         <f t="shared" si="15"/>
         <v>28.668161429590139</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG6">
+        <f>AVERAGE(AE6+AE18+AE30+AE41)</f>
+        <v>116.38900051124044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -5284,8 +5310,12 @@
         <f t="shared" si="15"/>
         <v>8.1305516443912058</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG7">
+        <f>AVERAGE(AE7+AE19+AE31+AE42)</f>
+        <v>113.14653626650136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -5383,8 +5413,16 @@
         <f>B8/I8</f>
         <v>9.5693274673881241</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG8">
+        <f>AVERAGE(AE8+AE20+AE32+AE43)</f>
+        <v>142.43270133295098</v>
+      </c>
+      <c r="AH8">
+        <f>AG3/AG8</f>
+        <v>1.7871221802667723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -5398,7 +5436,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5419,7 +5457,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -5433,7 +5471,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -5447,7 +5485,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5530,7 +5568,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5597,39 +5635,39 @@
         <v>50</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" ref="X10:X43" si="24">B14/B14</f>
+        <f t="shared" ref="X14:X37" si="24">B14/B14</f>
         <v>1</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" ref="Y10:Y43" si="25">B14/C14</f>
+        <f t="shared" ref="Y14:Y32" si="25">B14/C14</f>
         <v>1.9904328017754311</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" ref="Z10:Z43" si="26">B14/D14</f>
+        <f t="shared" ref="Z14:Z32" si="26">B14/D14</f>
         <v>0.23305062144065533</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" ref="AA10:AA43" si="27">B14/E14</f>
+        <f t="shared" ref="AA14:AA32" si="27">B14/E14</f>
         <v>0.32228082470263908</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" ref="AB10:AB43" si="28">B14/F14</f>
+        <f t="shared" ref="AB14:AB32" si="28">B14/F14</f>
         <v>0.58444251221633936</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" ref="AC10:AC43" si="29">B14/G14</f>
+        <f t="shared" ref="AC14:AC32" si="29">B14/G14</f>
         <v>0.76347750111848645</v>
       </c>
       <c r="AD14">
-        <f t="shared" ref="AD10:AD43" si="30">B14/H14</f>
+        <f t="shared" ref="AD14:AD32" si="30">B14/H14</f>
         <v>1.4594955737578441</v>
       </c>
       <c r="AE14">
-        <f t="shared" ref="AE9:AE43" si="31">B14/I14</f>
+        <f t="shared" ref="AE14:AE32" si="31">B14/I14</f>
         <v>3.0488485695014718</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5728,7 +5766,7 @@
         <v>47.270270231817207</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -5827,7 +5865,7 @@
         <v>1.3223415518722477</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -5926,7 +5964,7 @@
         <v>10.306698004963328</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -6025,7 +6063,7 @@
         <v>1.3420850606202328</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -6124,7 +6162,7 @@
         <v>3.1318996418337091</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -6223,7 +6261,7 @@
         <v>48.0329670260342</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6237,7 +6275,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6251,7 +6289,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6265,7 +6303,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -6279,7 +6317,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -6362,7 +6400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -6461,7 +6499,7 @@
         <v>81.612722216670278</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -6559,8 +6597,12 @@
         <f t="shared" si="31"/>
         <v>106.14355227837864</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF27">
+        <f>AE27/AE26</f>
+        <v>1.300576054755072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -6659,7 +6701,7 @@
         <v>1.3426443202913392</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -6758,7 +6800,7 @@
         <v>80.216911744651654</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -6857,7 +6899,7 @@
         <v>76.528070185642335</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -6956,7 +6998,7 @@
         <v>80.039449524835916</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -7055,7 +7097,7 @@
         <v>79.316363636363633</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7069,7 +7111,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -7083,7 +7125,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -7097,7 +7139,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -7180,7 +7222,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -7279,7 +7321,7 @@
         <v>21.787478923279558</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -7377,8 +7419,12 @@
         <f t="shared" ref="AE38:AE43" si="55">I38/B38</f>
         <v>25.279706126477944</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF38">
+        <f>AE38/AE37</f>
+        <v>1.1602859704647608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -7477,7 +7523,7 @@
         <v>13.494702682834536</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7576,7 +7622,7 @@
         <v>9.6623176025078E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -7675,7 +7721,7 @@
         <v>9.8506838353877217</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -7774,7 +7820,7 @@
         <v>21.844635455440532</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -7883,8 +7929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9751B6-9DD4-A94E-B89E-DA491D45E4AB}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paper/data/scalobility/8node-scalobility.xlsx
+++ b/paper/data/scalobility/8node-scalobility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09825EA6-5640-0046-B662-952977132B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21551238-5C6A-604C-AFD7-47902EE1526B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="72">
   <si>
     <t>blackscholes</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>128T</t>
+  </si>
+  <si>
+    <t>new binding data 05-08</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52C62D-7A23-7E4D-81E0-AC790BE30E7F}">
-  <dimension ref="A1:AA124"/>
+  <dimension ref="A1:AA155"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="169" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4589,8 +4592,329 @@
         <v>0.99866981074551697</v>
       </c>
     </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="2">
+        <v>24.497500000500001</v>
+      </c>
+      <c r="C129" s="2">
+        <v>24.152499999900002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="2">
+        <v>14.1675</v>
+      </c>
+      <c r="C130" s="2">
+        <v>13.803750000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2">
+        <v>38.710000000400001</v>
+      </c>
+      <c r="C131" s="2">
+        <v>38.481250000199999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="2">
+        <v>7.75875000004</v>
+      </c>
+      <c r="C132" s="2">
+        <v>7.0162499994000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2">
+        <v>189.88</v>
+      </c>
+      <c r="C133" s="2">
+        <v>183.63374999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2">
+        <v>12.1637499998</v>
+      </c>
+      <c r="C134" s="2">
+        <v>12.147500000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2">
+        <v>66.942499999399999</v>
+      </c>
+      <c r="C135" s="2">
+        <v>15.0250000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="2">
+        <v>66.086249999700001</v>
+      </c>
+      <c r="C136" s="2">
+        <v>66.165000000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2">
+        <v>29.263750000400002</v>
+      </c>
+      <c r="C137" s="2">
+        <v>23.59375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2.3312500007499999</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1.9962500003200001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="2">
+        <v>8.2937500001900002</v>
+      </c>
+      <c r="C139" s="2">
+        <v>8.1924999998899999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="2">
+        <v>20.4175</v>
+      </c>
+      <c r="C140" s="2">
+        <v>18.640000000099999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="9"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="2">
+        <f>B129/B129</f>
+        <v>1</v>
+      </c>
+      <c r="C144" s="4">
+        <f>C129/B129</f>
+        <v>0.98591693027480531</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" ref="B145:B155" si="30">B130/B130</f>
+        <v>1</v>
+      </c>
+      <c r="C145" s="4">
+        <f t="shared" ref="C145:C155" si="31">C130/B130</f>
+        <v>0.97432503970354689</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C146" s="4">
+        <f t="shared" si="31"/>
+        <v>0.99409067423927566</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C147" s="4">
+        <f t="shared" si="31"/>
+        <v>0.90430159489142303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C148" s="4">
+        <f t="shared" si="31"/>
+        <v>0.96710422372024429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C149" s="4">
+        <f t="shared" si="31"/>
+        <v>0.99866406331926694</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C150" s="4">
+        <f t="shared" si="31"/>
+        <v>0.22444635322156581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C151" s="4">
+        <f t="shared" si="31"/>
+        <v>1.0011916245860577</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C152" s="4">
+        <f t="shared" si="31"/>
+        <v>0.80624492758711719</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C153" s="4">
+        <f t="shared" si="31"/>
+        <v>0.85630026795829495</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C154" s="4">
+        <f t="shared" si="31"/>
+        <v>0.98779201202137989</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C155" s="4">
+        <f t="shared" si="31"/>
+        <v>0.91294232888943305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4857,35 +5181,35 @@
         <v>51</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" ref="X3:X9" si="8">B3/B3</f>
+        <f t="shared" ref="X3:X8" si="8">B3/B3</f>
         <v>1</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y9" si="9">B3/C3</f>
+        <f t="shared" ref="Y3:Y8" si="9">B3/C3</f>
         <v>2.0366967002320102</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z9" si="10">B3/D3</f>
+        <f t="shared" ref="Z3:Z8" si="10">B3/D3</f>
         <v>4.1243354278431417</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="AA3:AA9" si="11">B3/E3</f>
+        <f t="shared" ref="AA3:AA8" si="11">B3/E3</f>
         <v>8.6675977655514043</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" ref="AB3:AB9" si="12">B3/F3</f>
+        <f t="shared" ref="AB3:AB8" si="12">B3/F3</f>
         <v>17.713025428484809</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC9" si="13">B3/G3</f>
+        <f t="shared" ref="AC3:AC8" si="13">B3/G3</f>
         <v>36.584137184154173</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD9" si="14">B3/H3</f>
+        <f t="shared" ref="AD3:AD8" si="14">B3/H3</f>
         <v>60.412389356382228</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE8" si="15">B3/I3</f>
+        <f t="shared" ref="AE3:AE7" si="15">B3/I3</f>
         <v>75.851111110755554</v>
       </c>
     </row>
@@ -5597,35 +5921,35 @@
         <v>50</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" ref="X10:X43" si="24">B14/B14</f>
+        <f t="shared" ref="X14:X37" si="24">B14/B14</f>
         <v>1</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" ref="Y10:Y43" si="25">B14/C14</f>
+        <f t="shared" ref="Y14:Y32" si="25">B14/C14</f>
         <v>1.9904328017754311</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" ref="Z10:Z43" si="26">B14/D14</f>
+        <f t="shared" ref="Z14:Z32" si="26">B14/D14</f>
         <v>0.23305062144065533</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" ref="AA10:AA43" si="27">B14/E14</f>
+        <f t="shared" ref="AA14:AA32" si="27">B14/E14</f>
         <v>0.32228082470263908</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" ref="AB10:AB43" si="28">B14/F14</f>
+        <f t="shared" ref="AB14:AB32" si="28">B14/F14</f>
         <v>0.58444251221633936</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" ref="AC10:AC43" si="29">B14/G14</f>
+        <f t="shared" ref="AC14:AC32" si="29">B14/G14</f>
         <v>0.76347750111848645</v>
       </c>
       <c r="AD14">
-        <f t="shared" ref="AD10:AD43" si="30">B14/H14</f>
+        <f t="shared" ref="AD14:AD32" si="30">B14/H14</f>
         <v>1.4594955737578441</v>
       </c>
       <c r="AE14">
-        <f t="shared" ref="AE9:AE43" si="31">B14/I14</f>
+        <f t="shared" ref="AE14:AE32" si="31">B14/I14</f>
         <v>3.0488485695014718</v>
       </c>
     </row>
@@ -7883,7 +8207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9751B6-9DD4-A94E-B89E-DA491D45E4AB}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/scalobility/8node-scalobility.xlsx
+++ b/paper/data/scalobility/8node-scalobility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21551238-5C6A-604C-AFD7-47902EE1526B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A10213C-68D1-C34D-9C59-BF49DBEE16AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52C62D-7A23-7E4D-81E0-AC790BE30E7F}">
   <dimension ref="A1:AA155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="169" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144:C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,166 +4750,166 @@
         <v>43</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="2">
-        <f>B129/B129</f>
-        <v>1</v>
-      </c>
-      <c r="C144" s="4">
-        <f>C129/B129</f>
-        <v>0.98591693027480531</v>
+      <c r="B144" s="4">
+        <f>C129/C129</f>
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
+        <f>B129/C129</f>
+        <v>1.0142842356112796</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="2">
-        <f t="shared" ref="B145:B155" si="30">B130/B130</f>
-        <v>1</v>
-      </c>
-      <c r="C145" s="4">
-        <f t="shared" ref="C145:C155" si="31">C130/B130</f>
-        <v>0.97432503970354689</v>
+      <c r="B145" s="4">
+        <f t="shared" ref="B145:B155" si="30">C130/C130</f>
+        <v>1</v>
+      </c>
+      <c r="C145" s="2">
+        <f t="shared" ref="C145:C155" si="31">B130/C130</f>
+        <v>1.026351534908992</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="2">
         <f t="shared" si="31"/>
-        <v>0.99409067423927566</v>
+        <v>1.0059444534727644</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="2">
         <f t="shared" si="31"/>
-        <v>0.90430159489142303</v>
+        <v>1.1058257617250662</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="2">
         <f t="shared" si="31"/>
-        <v>0.96710422372024429</v>
+        <v>1.0340147167936178</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="2">
         <f t="shared" si="31"/>
-        <v>0.99866406331926694</v>
+        <v>1.0013377237950194</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="2">
         <f t="shared" si="31"/>
-        <v>0.22444635322156581</v>
+        <v>4.4554076537516032</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="2">
         <f t="shared" si="31"/>
-        <v>1.0011916245860577</v>
+        <v>0.99880979369304002</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="2">
         <f t="shared" si="31"/>
-        <v>0.80624492758711719</v>
+        <v>1.2403178808116557</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="2">
         <f t="shared" si="31"/>
-        <v>0.85630026795829495</v>
+        <v>1.1678146526618907</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="2">
         <f t="shared" si="31"/>
-        <v>0.98779201202137989</v>
+        <v>1.0123588648521649</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="2">
         <f t="shared" si="31"/>
-        <v>0.91294232888943305</v>
+        <v>1.0953594420542094</v>
       </c>
     </row>
   </sheetData>

--- a/paper/data/scalobility/8node-scalobility.xlsx
+++ b/paper/data/scalobility/8node-scalobility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/scalobility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D311FC-C86C-F74D-8F42-111C54DF4DC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A10213C-68D1-C34D-9C59-BF49DBEE16AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="72">
   <si>
     <t>blackscholes</t>
   </si>
@@ -246,6 +248,9 @@
   </si>
   <si>
     <t>128T</t>
+  </si>
+  <si>
+    <t>new binding data 05-08</t>
   </si>
 </sst>
 </file>
@@ -681,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E52C62D-7A23-7E4D-81E0-AC790BE30E7F}">
-  <dimension ref="A1:AA124"/>
+  <dimension ref="A1:AA155"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144:C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4587,17 +4592,338 @@
         <v>0.99866981074551697</v>
       </c>
     </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="2">
+        <v>24.497500000500001</v>
+      </c>
+      <c r="C129" s="2">
+        <v>24.152499999900002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="2">
+        <v>14.1675</v>
+      </c>
+      <c r="C130" s="2">
+        <v>13.803750000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2">
+        <v>38.710000000400001</v>
+      </c>
+      <c r="C131" s="2">
+        <v>38.481250000199999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="2">
+        <v>7.75875000004</v>
+      </c>
+      <c r="C132" s="2">
+        <v>7.0162499994000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2">
+        <v>189.88</v>
+      </c>
+      <c r="C133" s="2">
+        <v>183.63374999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2">
+        <v>12.1637499998</v>
+      </c>
+      <c r="C134" s="2">
+        <v>12.147500000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2">
+        <v>66.942499999399999</v>
+      </c>
+      <c r="C135" s="2">
+        <v>15.0250000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="2">
+        <v>66.086249999700001</v>
+      </c>
+      <c r="C136" s="2">
+        <v>66.165000000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2">
+        <v>29.263750000400002</v>
+      </c>
+      <c r="C137" s="2">
+        <v>23.59375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2.3312500007499999</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1.9962500003200001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="2">
+        <v>8.2937500001900002</v>
+      </c>
+      <c r="C139" s="2">
+        <v>8.1924999998899999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="2">
+        <v>20.4175</v>
+      </c>
+      <c r="C140" s="2">
+        <v>18.640000000099999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="9"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="4">
+        <f>C129/C129</f>
+        <v>1</v>
+      </c>
+      <c r="C144" s="2">
+        <f>B129/C129</f>
+        <v>1.0142842356112796</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="4">
+        <f t="shared" ref="B145:B155" si="30">C130/C130</f>
+        <v>1</v>
+      </c>
+      <c r="C145" s="2">
+        <f t="shared" ref="C145:C155" si="31">B130/C130</f>
+        <v>1.026351534908992</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C146" s="2">
+        <f t="shared" si="31"/>
+        <v>1.0059444534727644</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
+        <f t="shared" si="31"/>
+        <v>1.1058257617250662</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C148" s="2">
+        <f t="shared" si="31"/>
+        <v>1.0340147167936178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C149" s="2">
+        <f t="shared" si="31"/>
+        <v>1.0013377237950194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
+        <f t="shared" si="31"/>
+        <v>4.4554076537516032</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
+        <f t="shared" si="31"/>
+        <v>0.99880979369304002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <f t="shared" si="31"/>
+        <v>1.2403178808116557</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <f t="shared" si="31"/>
+        <v>1.1678146526618907</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C154" s="2">
+        <f t="shared" si="31"/>
+        <v>1.0123588648521649</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="4">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C155" s="2">
+        <f t="shared" si="31"/>
+        <v>1.0953594420542094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D94CDA-0228-0544-A979-BC3A7DF19415}">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView topLeftCell="Q1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4605,7 +4931,7 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -4689,7 +5015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4787,16 +5113,8 @@
         <f>B2/I2</f>
         <v>8.0327557855857972</v>
       </c>
-      <c r="AG2">
-        <f>AVERAGE(AE2+AE14+AE26+AE37)</f>
-        <v>114.48180549503709</v>
-      </c>
-      <c r="AH2">
-        <f>AG3/AG2</f>
-        <v>2.2234506055066028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4894,16 +5212,8 @@
         <f t="shared" ref="AE3:AE7" si="15">B3/I3</f>
         <v>75.851111110755554</v>
       </c>
-      <c r="AF3">
-        <f>AE3/AE6</f>
-        <v>2.6458310309521642</v>
-      </c>
-      <c r="AG3">
-        <f>AVERAGE(AE3+AE15+AE27+AE38)</f>
-        <v>254.54463974742936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -5001,12 +5311,8 @@
         <f t="shared" si="15"/>
         <v>1.8748744015916996</v>
       </c>
-      <c r="AG4">
-        <f>AVERAGE(AE4+AE16+AE28+AE39)</f>
-        <v>18.034562956589824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5104,12 +5410,8 @@
         <f t="shared" si="15"/>
         <v>1.5131845168900075</v>
       </c>
-      <c r="AG5">
-        <f>AVERAGE(AE5+AE17+AE29+AE40)</f>
-        <v>92.13341744253006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5207,12 +5509,8 @@
         <f t="shared" si="15"/>
         <v>28.668161429590139</v>
       </c>
-      <c r="AG6">
-        <f>AVERAGE(AE6+AE18+AE30+AE41)</f>
-        <v>116.38900051124044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -5310,12 +5608,8 @@
         <f t="shared" si="15"/>
         <v>8.1305516443912058</v>
       </c>
-      <c r="AG7">
-        <f>AVERAGE(AE7+AE19+AE31+AE42)</f>
-        <v>113.14653626650136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -5413,16 +5707,8 @@
         <f>B8/I8</f>
         <v>9.5693274673881241</v>
       </c>
-      <c r="AG8">
-        <f>AVERAGE(AE8+AE20+AE32+AE43)</f>
-        <v>142.43270133295098</v>
-      </c>
-      <c r="AH8">
-        <f>AG3/AG8</f>
-        <v>1.7871221802667723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -5436,7 +5722,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5457,7 +5743,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -5471,7 +5757,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -5485,7 +5771,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5568,7 +5854,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5667,7 +5953,7 @@
         <v>3.0488485695014718</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5766,7 +6052,7 @@
         <v>47.270270231817207</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -5865,7 +6151,7 @@
         <v>1.3223415518722477</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -5964,7 +6250,7 @@
         <v>10.306698004963328</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -6063,7 +6349,7 @@
         <v>1.3420850606202328</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -6162,7 +6448,7 @@
         <v>3.1318996418337091</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -6261,7 +6547,7 @@
         <v>48.0329670260342</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6275,7 +6561,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6289,7 +6575,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6303,7 +6589,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -6317,7 +6603,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -6400,7 +6686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -6499,7 +6785,7 @@
         <v>81.612722216670278</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -6597,12 +6883,8 @@
         <f t="shared" si="31"/>
         <v>106.14355227837864</v>
       </c>
-      <c r="AF27">
-        <f>AE27/AE26</f>
-        <v>1.300576054755072</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -6701,7 +6983,7 @@
         <v>1.3426443202913392</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -6800,7 +7082,7 @@
         <v>80.216911744651654</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -6899,7 +7181,7 @@
         <v>76.528070185642335</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -6998,7 +7280,7 @@
         <v>80.039449524835916</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -7097,7 +7379,7 @@
         <v>79.316363636363633</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7111,7 +7393,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -7125,7 +7407,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -7139,7 +7421,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -7222,7 +7504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -7321,7 +7603,7 @@
         <v>21.787478923279558</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -7419,12 +7701,8 @@
         <f t="shared" ref="AE38:AE43" si="55">I38/B38</f>
         <v>25.279706126477944</v>
       </c>
-      <c r="AF38">
-        <f>AE38/AE37</f>
-        <v>1.1602859704647608</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -7523,7 +7801,7 @@
         <v>13.494702682834536</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7622,7 +7900,7 @@
         <v>9.6623176025078E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -7721,7 +7999,7 @@
         <v>9.8506838353877217</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -7820,7 +8098,7 @@
         <v>21.844635455440532</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -7929,8 +8207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9751B6-9DD4-A94E-B89E-DA491D45E4AB}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
